--- a/jsp-servlet/SaleManagement/doc/Sale Management UI.xlsx
+++ b/jsp-servlet/SaleManagement/doc/Sale Management UI.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" firstSheet="2" activeTab="9"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" firstSheet="2" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="index" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="74">
   <si>
     <t>Welcome to Sale Management System</t>
   </si>
@@ -310,6 +310,15 @@
   </si>
   <si>
     <t>46.970.000</t>
+  </si>
+  <si>
+    <t>Product List</t>
+  </si>
+  <si>
+    <t>Create a Product</t>
+  </si>
+  <si>
+    <t>Search</t>
   </si>
 </sst>
 </file>
@@ -685,7 +694,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="122">
+  <cellXfs count="128">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -752,7 +761,38 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
@@ -768,6 +808,27 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -807,24 +868,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
@@ -841,27 +884,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -890,24 +912,6 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -926,6 +930,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -941,7 +948,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="18" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -962,16 +984,17 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -996,13 +1019,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>129624</xdr:colOff>
-      <xdr:row>8</xdr:row>
+      <xdr:row>10</xdr:row>
       <xdr:rowOff>66675</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>95251</xdr:colOff>
-      <xdr:row>9</xdr:row>
+      <xdr:row>11</xdr:row>
       <xdr:rowOff>526733</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1051,13 +1074,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>133350</xdr:colOff>
-      <xdr:row>10</xdr:row>
+      <xdr:row>12</xdr:row>
       <xdr:rowOff>161925</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>123824</xdr:colOff>
-      <xdr:row>11</xdr:row>
+      <xdr:row>13</xdr:row>
       <xdr:rowOff>650556</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1171,13 +1194,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>129624</xdr:colOff>
-      <xdr:row>9</xdr:row>
+      <xdr:row>10</xdr:row>
       <xdr:rowOff>66675</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>95251</xdr:colOff>
-      <xdr:row>10</xdr:row>
+      <xdr:row>11</xdr:row>
       <xdr:rowOff>526733</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1226,13 +1249,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>133350</xdr:colOff>
-      <xdr:row>11</xdr:row>
+      <xdr:row>12</xdr:row>
       <xdr:rowOff>161925</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>123824</xdr:colOff>
-      <xdr:row>12</xdr:row>
+      <xdr:row>13</xdr:row>
       <xdr:rowOff>650556</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2967,7 +2990,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:AZ53"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="BC12" sqref="BC12"/>
     </sheetView>
   </sheetViews>
@@ -3283,135 +3306,135 @@
     <row r="9" spans="2:40" x14ac:dyDescent="0.25">
       <c r="B9" s="4"/>
       <c r="C9" s="5"/>
-      <c r="D9" s="78"/>
-      <c r="E9" s="79"/>
-      <c r="F9" s="79"/>
-      <c r="G9" s="80"/>
-      <c r="H9" s="66" t="s">
+      <c r="D9" s="53"/>
+      <c r="E9" s="54"/>
+      <c r="F9" s="54"/>
+      <c r="G9" s="55"/>
+      <c r="H9" s="65" t="s">
         <v>35</v>
       </c>
-      <c r="I9" s="67"/>
-      <c r="J9" s="67"/>
-      <c r="K9" s="67"/>
-      <c r="L9" s="67"/>
-      <c r="M9" s="68"/>
-      <c r="N9" s="84" t="s">
+      <c r="I9" s="66"/>
+      <c r="J9" s="66"/>
+      <c r="K9" s="66"/>
+      <c r="L9" s="66"/>
+      <c r="M9" s="67"/>
+      <c r="N9" s="59" t="s">
         <v>36</v>
       </c>
-      <c r="O9" s="49"/>
-      <c r="P9" s="49"/>
-      <c r="Q9" s="50"/>
-      <c r="R9" s="94">
+      <c r="O9" s="60"/>
+      <c r="P9" s="60"/>
+      <c r="Q9" s="61"/>
+      <c r="R9" s="111">
         <v>2</v>
       </c>
-      <c r="S9" s="95"/>
-      <c r="T9" s="96"/>
-      <c r="U9" s="72" t="s">
+      <c r="S9" s="112"/>
+      <c r="T9" s="113"/>
+      <c r="U9" s="84" t="s">
         <v>67</v>
       </c>
-      <c r="V9" s="73"/>
-      <c r="W9" s="73"/>
-      <c r="X9" s="73"/>
-      <c r="Y9" s="73"/>
-      <c r="Z9" s="73"/>
-      <c r="AA9" s="73"/>
-      <c r="AB9" s="73"/>
-      <c r="AC9" s="73"/>
-      <c r="AD9" s="73"/>
-      <c r="AE9" s="73"/>
-      <c r="AF9" s="73"/>
-      <c r="AG9" s="74"/>
-      <c r="AH9" s="112"/>
-      <c r="AI9" s="113"/>
-      <c r="AJ9" s="113"/>
-      <c r="AK9" s="113"/>
-      <c r="AL9" s="114"/>
+      <c r="V9" s="85"/>
+      <c r="W9" s="85"/>
+      <c r="X9" s="85"/>
+      <c r="Y9" s="85"/>
+      <c r="Z9" s="85"/>
+      <c r="AA9" s="85"/>
+      <c r="AB9" s="85"/>
+      <c r="AC9" s="85"/>
+      <c r="AD9" s="85"/>
+      <c r="AE9" s="85"/>
+      <c r="AF9" s="85"/>
+      <c r="AG9" s="86"/>
+      <c r="AH9" s="117"/>
+      <c r="AI9" s="118"/>
+      <c r="AJ9" s="118"/>
+      <c r="AK9" s="118"/>
+      <c r="AL9" s="119"/>
       <c r="AM9" s="5"/>
       <c r="AN9" s="6"/>
     </row>
     <row r="10" spans="2:40" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="4"/>
       <c r="C10" s="5"/>
-      <c r="D10" s="81"/>
-      <c r="E10" s="82"/>
-      <c r="F10" s="82"/>
-      <c r="G10" s="83"/>
-      <c r="H10" s="69"/>
-      <c r="I10" s="70"/>
-      <c r="J10" s="70"/>
-      <c r="K10" s="70"/>
-      <c r="L10" s="70"/>
-      <c r="M10" s="71"/>
-      <c r="N10" s="51"/>
-      <c r="O10" s="52"/>
-      <c r="P10" s="52"/>
-      <c r="Q10" s="53"/>
-      <c r="R10" s="97"/>
-      <c r="S10" s="98"/>
-      <c r="T10" s="99"/>
-      <c r="U10" s="75"/>
-      <c r="V10" s="76"/>
-      <c r="W10" s="76"/>
-      <c r="X10" s="76"/>
-      <c r="Y10" s="76"/>
-      <c r="Z10" s="76"/>
-      <c r="AA10" s="76"/>
-      <c r="AB10" s="76"/>
-      <c r="AC10" s="76"/>
-      <c r="AD10" s="76"/>
-      <c r="AE10" s="76"/>
-      <c r="AF10" s="76"/>
-      <c r="AG10" s="77"/>
-      <c r="AH10" s="115"/>
-      <c r="AI10" s="116"/>
-      <c r="AJ10" s="116"/>
-      <c r="AK10" s="116"/>
-      <c r="AL10" s="117"/>
+      <c r="D10" s="56"/>
+      <c r="E10" s="57"/>
+      <c r="F10" s="57"/>
+      <c r="G10" s="58"/>
+      <c r="H10" s="68"/>
+      <c r="I10" s="69"/>
+      <c r="J10" s="69"/>
+      <c r="K10" s="69"/>
+      <c r="L10" s="69"/>
+      <c r="M10" s="70"/>
+      <c r="N10" s="62"/>
+      <c r="O10" s="63"/>
+      <c r="P10" s="63"/>
+      <c r="Q10" s="64"/>
+      <c r="R10" s="114"/>
+      <c r="S10" s="115"/>
+      <c r="T10" s="116"/>
+      <c r="U10" s="87"/>
+      <c r="V10" s="88"/>
+      <c r="W10" s="88"/>
+      <c r="X10" s="88"/>
+      <c r="Y10" s="88"/>
+      <c r="Z10" s="88"/>
+      <c r="AA10" s="88"/>
+      <c r="AB10" s="88"/>
+      <c r="AC10" s="88"/>
+      <c r="AD10" s="88"/>
+      <c r="AE10" s="88"/>
+      <c r="AF10" s="88"/>
+      <c r="AG10" s="89"/>
+      <c r="AH10" s="120"/>
+      <c r="AI10" s="121"/>
+      <c r="AJ10" s="121"/>
+      <c r="AK10" s="121"/>
+      <c r="AL10" s="122"/>
       <c r="AM10" s="5"/>
       <c r="AN10" s="6"/>
     </row>
     <row r="11" spans="2:40" x14ac:dyDescent="0.25">
       <c r="B11" s="4"/>
       <c r="C11" s="5"/>
-      <c r="D11" s="84"/>
-      <c r="E11" s="49"/>
-      <c r="F11" s="49"/>
-      <c r="G11" s="50"/>
-      <c r="H11" s="66" t="s">
+      <c r="D11" s="59"/>
+      <c r="E11" s="60"/>
+      <c r="F11" s="60"/>
+      <c r="G11" s="61"/>
+      <c r="H11" s="65" t="s">
         <v>38</v>
       </c>
-      <c r="I11" s="67"/>
-      <c r="J11" s="67"/>
-      <c r="K11" s="67"/>
-      <c r="L11" s="67"/>
-      <c r="M11" s="68"/>
-      <c r="N11" s="84" t="s">
+      <c r="I11" s="66"/>
+      <c r="J11" s="66"/>
+      <c r="K11" s="66"/>
+      <c r="L11" s="66"/>
+      <c r="M11" s="67"/>
+      <c r="N11" s="59" t="s">
         <v>39</v>
       </c>
-      <c r="O11" s="49"/>
-      <c r="P11" s="49"/>
-      <c r="Q11" s="50"/>
-      <c r="R11" s="100">
+      <c r="O11" s="60"/>
+      <c r="P11" s="60"/>
+      <c r="Q11" s="61"/>
+      <c r="R11" s="99">
         <v>1</v>
       </c>
-      <c r="S11" s="101"/>
-      <c r="T11" s="102"/>
-      <c r="U11" s="72" t="s">
+      <c r="S11" s="100"/>
+      <c r="T11" s="101"/>
+      <c r="U11" s="84" t="s">
         <v>39</v>
       </c>
-      <c r="V11" s="73"/>
-      <c r="W11" s="73"/>
-      <c r="X11" s="73"/>
-      <c r="Y11" s="73"/>
-      <c r="Z11" s="73"/>
-      <c r="AA11" s="73"/>
-      <c r="AB11" s="73"/>
-      <c r="AC11" s="73"/>
-      <c r="AD11" s="73"/>
-      <c r="AE11" s="73"/>
-      <c r="AF11" s="73"/>
-      <c r="AG11" s="74"/>
-      <c r="AH11" s="111"/>
+      <c r="V11" s="85"/>
+      <c r="W11" s="85"/>
+      <c r="X11" s="85"/>
+      <c r="Y11" s="85"/>
+      <c r="Z11" s="85"/>
+      <c r="AA11" s="85"/>
+      <c r="AB11" s="85"/>
+      <c r="AC11" s="85"/>
+      <c r="AD11" s="85"/>
+      <c r="AE11" s="85"/>
+      <c r="AF11" s="85"/>
+      <c r="AG11" s="86"/>
+      <c r="AH11" s="105"/>
       <c r="AI11" s="106"/>
       <c r="AJ11" s="106"/>
       <c r="AK11" s="106"/>
@@ -3422,36 +3445,36 @@
     <row r="12" spans="2:40" ht="65.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="4"/>
       <c r="C12" s="5"/>
-      <c r="D12" s="51"/>
-      <c r="E12" s="52"/>
-      <c r="F12" s="52"/>
-      <c r="G12" s="53"/>
-      <c r="H12" s="69"/>
-      <c r="I12" s="70"/>
-      <c r="J12" s="70"/>
-      <c r="K12" s="70"/>
-      <c r="L12" s="70"/>
-      <c r="M12" s="71"/>
-      <c r="N12" s="51"/>
-      <c r="O12" s="52"/>
-      <c r="P12" s="52"/>
-      <c r="Q12" s="53"/>
-      <c r="R12" s="103"/>
-      <c r="S12" s="104"/>
-      <c r="T12" s="105"/>
-      <c r="U12" s="75"/>
-      <c r="V12" s="76"/>
-      <c r="W12" s="76"/>
-      <c r="X12" s="76"/>
-      <c r="Y12" s="76"/>
-      <c r="Z12" s="76"/>
-      <c r="AA12" s="76"/>
-      <c r="AB12" s="76"/>
-      <c r="AC12" s="76"/>
-      <c r="AD12" s="76"/>
-      <c r="AE12" s="76"/>
-      <c r="AF12" s="76"/>
-      <c r="AG12" s="77"/>
+      <c r="D12" s="62"/>
+      <c r="E12" s="63"/>
+      <c r="F12" s="63"/>
+      <c r="G12" s="64"/>
+      <c r="H12" s="68"/>
+      <c r="I12" s="69"/>
+      <c r="J12" s="69"/>
+      <c r="K12" s="69"/>
+      <c r="L12" s="69"/>
+      <c r="M12" s="70"/>
+      <c r="N12" s="62"/>
+      <c r="O12" s="63"/>
+      <c r="P12" s="63"/>
+      <c r="Q12" s="64"/>
+      <c r="R12" s="102"/>
+      <c r="S12" s="103"/>
+      <c r="T12" s="104"/>
+      <c r="U12" s="87"/>
+      <c r="V12" s="88"/>
+      <c r="W12" s="88"/>
+      <c r="X12" s="88"/>
+      <c r="Y12" s="88"/>
+      <c r="Z12" s="88"/>
+      <c r="AA12" s="88"/>
+      <c r="AB12" s="88"/>
+      <c r="AC12" s="88"/>
+      <c r="AD12" s="88"/>
+      <c r="AE12" s="88"/>
+      <c r="AF12" s="88"/>
+      <c r="AG12" s="89"/>
       <c r="AH12" s="108"/>
       <c r="AI12" s="109"/>
       <c r="AJ12" s="109"/>
@@ -3463,23 +3486,23 @@
     <row r="13" spans="2:40" x14ac:dyDescent="0.25">
       <c r="B13" s="4"/>
       <c r="C13" s="5"/>
-      <c r="D13" s="84"/>
-      <c r="E13" s="49"/>
-      <c r="F13" s="49"/>
-      <c r="G13" s="50"/>
-      <c r="H13" s="66"/>
-      <c r="I13" s="67"/>
-      <c r="J13" s="67"/>
-      <c r="K13" s="67"/>
-      <c r="L13" s="67"/>
-      <c r="M13" s="68"/>
-      <c r="N13" s="84"/>
-      <c r="O13" s="49"/>
-      <c r="P13" s="49"/>
-      <c r="Q13" s="50"/>
-      <c r="R13" s="66"/>
-      <c r="S13" s="67"/>
-      <c r="T13" s="68"/>
+      <c r="D13" s="59"/>
+      <c r="E13" s="60"/>
+      <c r="F13" s="60"/>
+      <c r="G13" s="61"/>
+      <c r="H13" s="65"/>
+      <c r="I13" s="66"/>
+      <c r="J13" s="66"/>
+      <c r="K13" s="66"/>
+      <c r="L13" s="66"/>
+      <c r="M13" s="67"/>
+      <c r="N13" s="59"/>
+      <c r="O13" s="60"/>
+      <c r="P13" s="60"/>
+      <c r="Q13" s="61"/>
+      <c r="R13" s="65"/>
+      <c r="S13" s="66"/>
+      <c r="T13" s="67"/>
       <c r="U13" s="29"/>
       <c r="V13" s="30"/>
       <c r="W13" s="30"/>
@@ -3493,34 +3516,34 @@
       <c r="AE13" s="30"/>
       <c r="AF13" s="30"/>
       <c r="AG13" s="31"/>
-      <c r="AH13" s="48"/>
-      <c r="AI13" s="49"/>
-      <c r="AJ13" s="49"/>
-      <c r="AK13" s="49"/>
-      <c r="AL13" s="50"/>
+      <c r="AH13" s="71"/>
+      <c r="AI13" s="60"/>
+      <c r="AJ13" s="60"/>
+      <c r="AK13" s="60"/>
+      <c r="AL13" s="61"/>
       <c r="AM13" s="5"/>
       <c r="AN13" s="6"/>
     </row>
     <row r="14" spans="2:40" x14ac:dyDescent="0.25">
       <c r="B14" s="4"/>
       <c r="C14" s="5"/>
-      <c r="D14" s="51"/>
-      <c r="E14" s="52"/>
-      <c r="F14" s="52"/>
-      <c r="G14" s="53"/>
-      <c r="H14" s="69"/>
-      <c r="I14" s="70"/>
-      <c r="J14" s="70"/>
-      <c r="K14" s="70"/>
-      <c r="L14" s="70"/>
-      <c r="M14" s="71"/>
-      <c r="N14" s="51"/>
-      <c r="O14" s="52"/>
-      <c r="P14" s="52"/>
-      <c r="Q14" s="53"/>
-      <c r="R14" s="69"/>
-      <c r="S14" s="70"/>
-      <c r="T14" s="71"/>
+      <c r="D14" s="62"/>
+      <c r="E14" s="63"/>
+      <c r="F14" s="63"/>
+      <c r="G14" s="64"/>
+      <c r="H14" s="68"/>
+      <c r="I14" s="69"/>
+      <c r="J14" s="69"/>
+      <c r="K14" s="69"/>
+      <c r="L14" s="69"/>
+      <c r="M14" s="70"/>
+      <c r="N14" s="62"/>
+      <c r="O14" s="63"/>
+      <c r="P14" s="63"/>
+      <c r="Q14" s="64"/>
+      <c r="R14" s="68"/>
+      <c r="S14" s="69"/>
+      <c r="T14" s="70"/>
       <c r="U14" s="32"/>
       <c r="V14" s="33"/>
       <c r="W14" s="33"/>
@@ -3534,11 +3557,11 @@
       <c r="AE14" s="33"/>
       <c r="AF14" s="33"/>
       <c r="AG14" s="34"/>
-      <c r="AH14" s="51"/>
-      <c r="AI14" s="52"/>
-      <c r="AJ14" s="52"/>
-      <c r="AK14" s="52"/>
-      <c r="AL14" s="53"/>
+      <c r="AH14" s="62"/>
+      <c r="AI14" s="63"/>
+      <c r="AJ14" s="63"/>
+      <c r="AK14" s="63"/>
+      <c r="AL14" s="64"/>
       <c r="AM14" s="5"/>
       <c r="AN14" s="6"/>
     </row>
@@ -3549,32 +3572,32 @@
       <c r="E15" s="20"/>
       <c r="F15" s="20"/>
       <c r="G15" s="20"/>
-      <c r="H15" s="119"/>
-      <c r="I15" s="119"/>
-      <c r="J15" s="119"/>
-      <c r="K15" s="119"/>
-      <c r="L15" s="119"/>
-      <c r="M15" s="119"/>
+      <c r="H15" s="50"/>
+      <c r="I15" s="50"/>
+      <c r="J15" s="50"/>
+      <c r="K15" s="50"/>
+      <c r="L15" s="50"/>
+      <c r="M15" s="50"/>
       <c r="N15" s="20"/>
       <c r="O15" s="20"/>
       <c r="P15" s="20"/>
       <c r="Q15" s="20"/>
-      <c r="R15" s="119"/>
-      <c r="S15" s="119"/>
-      <c r="T15" s="119"/>
-      <c r="U15" s="120"/>
-      <c r="V15" s="120"/>
-      <c r="W15" s="120"/>
-      <c r="X15" s="120"/>
-      <c r="Y15" s="120"/>
-      <c r="Z15" s="120"/>
-      <c r="AA15" s="120"/>
-      <c r="AB15" s="120"/>
-      <c r="AC15" s="120"/>
-      <c r="AD15" s="120"/>
-      <c r="AE15" s="120"/>
-      <c r="AF15" s="120"/>
-      <c r="AG15" s="120"/>
+      <c r="R15" s="50"/>
+      <c r="S15" s="50"/>
+      <c r="T15" s="50"/>
+      <c r="U15" s="51"/>
+      <c r="V15" s="51"/>
+      <c r="W15" s="51"/>
+      <c r="X15" s="51"/>
+      <c r="Y15" s="51"/>
+      <c r="Z15" s="51"/>
+      <c r="AA15" s="51"/>
+      <c r="AB15" s="51"/>
+      <c r="AC15" s="51"/>
+      <c r="AD15" s="51"/>
+      <c r="AE15" s="51"/>
+      <c r="AF15" s="51"/>
+      <c r="AG15" s="51"/>
       <c r="AH15" s="20"/>
       <c r="AI15" s="20"/>
       <c r="AJ15" s="20"/>
@@ -3614,7 +3637,7 @@
         <v>66</v>
       </c>
       <c r="AH16" s="5"/>
-      <c r="AI16" s="121" t="s">
+      <c r="AI16" s="52" t="s">
         <v>70</v>
       </c>
       <c r="AJ16" s="5"/>
@@ -3835,33 +3858,23 @@
       <c r="AN21" s="9"/>
     </row>
     <row r="24" spans="2:52" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="AZ24" s="118"/>
+      <c r="AZ24" s="49"/>
     </row>
     <row r="25" spans="2:52" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="AZ25" s="118"/>
+      <c r="AZ25" s="49"/>
     </row>
     <row r="52" spans="52:52" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="AZ52" s="118" t="s">
+      <c r="AZ52" s="49" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="53" spans="52:52" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="AZ53" s="118" t="s">
+      <c r="AZ53" s="49" t="s">
         <v>69</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="D13:G14"/>
-    <mergeCell ref="H13:M14"/>
-    <mergeCell ref="N13:Q14"/>
-    <mergeCell ref="R13:T14"/>
-    <mergeCell ref="AH13:AL14"/>
-    <mergeCell ref="D11:G12"/>
-    <mergeCell ref="H11:M12"/>
-    <mergeCell ref="N11:Q12"/>
-    <mergeCell ref="R11:T12"/>
-    <mergeCell ref="U11:AG12"/>
     <mergeCell ref="AH11:AL12"/>
     <mergeCell ref="D9:G10"/>
     <mergeCell ref="H9:M10"/>
@@ -3869,6 +3882,16 @@
     <mergeCell ref="R9:T10"/>
     <mergeCell ref="U9:AG10"/>
     <mergeCell ref="AH9:AL10"/>
+    <mergeCell ref="D11:G12"/>
+    <mergeCell ref="H11:M12"/>
+    <mergeCell ref="N11:Q12"/>
+    <mergeCell ref="R11:T12"/>
+    <mergeCell ref="U11:AG12"/>
+    <mergeCell ref="D13:G14"/>
+    <mergeCell ref="H13:M14"/>
+    <mergeCell ref="N13:Q14"/>
+    <mergeCell ref="R13:T14"/>
+    <mergeCell ref="AH13:AL14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -8712,10 +8735,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:AN20"/>
+  <dimension ref="B1:AN22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="AB3" sqref="AB3:AD3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="BC12" sqref="BC12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8897,19 +8920,15 @@
       <c r="B6" s="4"/>
       <c r="C6" s="5"/>
       <c r="D6" s="18" t="s">
-        <v>44</v>
+        <v>71</v>
       </c>
       <c r="E6" s="19"/>
       <c r="F6" s="19"/>
-      <c r="G6" s="27" t="s">
-        <v>45</v>
-      </c>
-      <c r="H6" s="22"/>
-      <c r="I6" s="22"/>
-      <c r="J6" s="22"/>
-      <c r="K6" s="28" t="s">
-        <v>15</v>
-      </c>
+      <c r="G6" s="124"/>
+      <c r="H6" s="19"/>
+      <c r="I6" s="19"/>
+      <c r="J6" s="19"/>
+      <c r="K6" s="18"/>
       <c r="L6" s="19"/>
       <c r="M6" s="19"/>
       <c r="N6" s="19"/>
@@ -8983,406 +9002,400 @@
     <row r="8" spans="2:40" x14ac:dyDescent="0.25">
       <c r="B8" s="4"/>
       <c r="C8" s="5"/>
-      <c r="D8" s="35" t="s">
-        <v>28</v>
-      </c>
-      <c r="E8" s="36"/>
-      <c r="F8" s="36"/>
-      <c r="G8" s="37"/>
-      <c r="H8" s="38" t="s">
-        <v>29</v>
-      </c>
-      <c r="I8" s="39"/>
-      <c r="J8" s="39"/>
-      <c r="K8" s="39"/>
-      <c r="L8" s="39"/>
-      <c r="M8" s="40"/>
-      <c r="N8" s="38" t="s">
-        <v>32</v>
-      </c>
-      <c r="O8" s="39"/>
-      <c r="P8" s="39"/>
-      <c r="Q8" s="40"/>
-      <c r="R8" s="38" t="s">
-        <v>46</v>
-      </c>
-      <c r="S8" s="39"/>
-      <c r="T8" s="40"/>
-      <c r="U8" s="38" t="s">
-        <v>30</v>
-      </c>
-      <c r="V8" s="39"/>
-      <c r="W8" s="39"/>
-      <c r="X8" s="39"/>
-      <c r="Y8" s="39"/>
-      <c r="Z8" s="39"/>
-      <c r="AA8" s="39"/>
-      <c r="AB8" s="39"/>
-      <c r="AC8" s="39"/>
-      <c r="AD8" s="39"/>
-      <c r="AE8" s="39"/>
-      <c r="AF8" s="39"/>
-      <c r="AG8" s="40"/>
-      <c r="AH8" s="38" t="s">
-        <v>31</v>
-      </c>
-      <c r="AI8" s="39"/>
-      <c r="AJ8" s="39"/>
-      <c r="AK8" s="39"/>
-      <c r="AL8" s="40"/>
+      <c r="D8" s="27" t="s">
+        <v>45</v>
+      </c>
+      <c r="E8" s="22"/>
+      <c r="F8" s="22"/>
+      <c r="G8" s="23"/>
+      <c r="H8" s="123" t="s">
+        <v>15</v>
+      </c>
+      <c r="J8" s="21" t="s">
+        <v>73</v>
+      </c>
+      <c r="K8" s="22"/>
+      <c r="L8" s="23"/>
+      <c r="N8" s="5"/>
+      <c r="O8" s="21" t="s">
+        <v>72</v>
+      </c>
+      <c r="P8" s="22"/>
+      <c r="Q8" s="22"/>
+      <c r="R8" s="22"/>
+      <c r="S8" s="22"/>
+      <c r="T8" s="23"/>
+      <c r="AC8" s="5"/>
+      <c r="AD8" s="5"/>
+      <c r="AE8" s="5"/>
+      <c r="AF8" s="5"/>
+      <c r="AG8" s="5"/>
+      <c r="AH8" s="5"/>
+      <c r="AI8" s="5"/>
+      <c r="AJ8" s="5"/>
+      <c r="AK8" s="5"/>
+      <c r="AL8" s="5"/>
       <c r="AM8" s="5"/>
       <c r="AN8" s="6"/>
     </row>
     <row r="9" spans="2:40" x14ac:dyDescent="0.25">
       <c r="B9" s="4"/>
       <c r="C9" s="5"/>
-      <c r="D9" s="78"/>
-      <c r="E9" s="79"/>
-      <c r="F9" s="79"/>
-      <c r="G9" s="80"/>
-      <c r="H9" s="66" t="s">
-        <v>35</v>
-      </c>
-      <c r="I9" s="67"/>
-      <c r="J9" s="67"/>
-      <c r="K9" s="67"/>
-      <c r="L9" s="67"/>
-      <c r="M9" s="68"/>
-      <c r="N9" s="84" t="s">
-        <v>36</v>
-      </c>
-      <c r="O9" s="49"/>
-      <c r="P9" s="49"/>
-      <c r="Q9" s="50"/>
-      <c r="R9" s="54" t="s">
-        <v>47</v>
-      </c>
-      <c r="S9" s="55"/>
-      <c r="T9" s="56"/>
-      <c r="U9" s="72" t="s">
-        <v>37</v>
-      </c>
-      <c r="V9" s="73"/>
-      <c r="W9" s="73"/>
-      <c r="X9" s="73"/>
-      <c r="Y9" s="73"/>
-      <c r="Z9" s="73"/>
-      <c r="AA9" s="73"/>
-      <c r="AB9" s="73"/>
-      <c r="AC9" s="73"/>
-      <c r="AD9" s="73"/>
-      <c r="AE9" s="73"/>
-      <c r="AF9" s="73"/>
-      <c r="AG9" s="74"/>
-      <c r="AH9" s="85" t="s">
-        <v>43</v>
-      </c>
-      <c r="AI9" s="86"/>
-      <c r="AJ9" s="86"/>
-      <c r="AK9" s="86"/>
-      <c r="AL9" s="87"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="5"/>
+      <c r="J9" s="5"/>
+      <c r="K9" s="5"/>
+      <c r="L9" s="5"/>
+      <c r="M9" s="5"/>
+      <c r="N9" s="5"/>
+      <c r="O9" s="5"/>
+      <c r="R9" s="5"/>
+      <c r="S9" s="5"/>
+      <c r="T9" s="5"/>
+      <c r="U9" s="5"/>
+      <c r="V9" s="5"/>
+      <c r="W9" s="5"/>
+      <c r="X9" s="5"/>
+      <c r="Y9" s="5"/>
+      <c r="Z9" s="5"/>
+      <c r="AA9" s="5"/>
+      <c r="AB9" s="5"/>
+      <c r="AC9" s="5"/>
+      <c r="AD9" s="5"/>
+      <c r="AE9" s="5"/>
+      <c r="AF9" s="5"/>
+      <c r="AG9" s="5"/>
+      <c r="AH9" s="5"/>
+      <c r="AI9" s="5"/>
+      <c r="AJ9" s="5"/>
+      <c r="AK9" s="5"/>
+      <c r="AL9" s="5"/>
       <c r="AM9" s="5"/>
       <c r="AN9" s="6"/>
     </row>
-    <row r="10" spans="2:40" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:40" x14ac:dyDescent="0.25">
       <c r="B10" s="4"/>
       <c r="C10" s="5"/>
-      <c r="D10" s="81"/>
-      <c r="E10" s="82"/>
-      <c r="F10" s="82"/>
-      <c r="G10" s="83"/>
-      <c r="H10" s="69"/>
-      <c r="I10" s="70"/>
-      <c r="J10" s="70"/>
-      <c r="K10" s="70"/>
-      <c r="L10" s="70"/>
-      <c r="M10" s="71"/>
-      <c r="N10" s="51"/>
-      <c r="O10" s="52"/>
-      <c r="P10" s="52"/>
-      <c r="Q10" s="53"/>
-      <c r="R10" s="57"/>
-      <c r="S10" s="58"/>
-      <c r="T10" s="59"/>
-      <c r="U10" s="75"/>
-      <c r="V10" s="76"/>
-      <c r="W10" s="76"/>
-      <c r="X10" s="76"/>
-      <c r="Y10" s="76"/>
-      <c r="Z10" s="76"/>
-      <c r="AA10" s="76"/>
-      <c r="AB10" s="76"/>
-      <c r="AC10" s="76"/>
-      <c r="AD10" s="76"/>
-      <c r="AE10" s="76"/>
-      <c r="AF10" s="76"/>
-      <c r="AG10" s="77"/>
-      <c r="AH10" s="88"/>
-      <c r="AI10" s="89"/>
-      <c r="AJ10" s="89"/>
-      <c r="AK10" s="89"/>
-      <c r="AL10" s="90"/>
+      <c r="D10" s="35" t="s">
+        <v>28</v>
+      </c>
+      <c r="E10" s="36"/>
+      <c r="F10" s="36"/>
+      <c r="G10" s="37"/>
+      <c r="H10" s="38" t="s">
+        <v>29</v>
+      </c>
+      <c r="I10" s="39"/>
+      <c r="J10" s="39"/>
+      <c r="K10" s="39"/>
+      <c r="L10" s="39"/>
+      <c r="M10" s="40"/>
+      <c r="N10" s="38" t="s">
+        <v>32</v>
+      </c>
+      <c r="O10" s="39"/>
+      <c r="P10" s="39"/>
+      <c r="Q10" s="40"/>
+      <c r="R10" s="38" t="s">
+        <v>46</v>
+      </c>
+      <c r="S10" s="39"/>
+      <c r="T10" s="40"/>
+      <c r="U10" s="38" t="s">
+        <v>30</v>
+      </c>
+      <c r="V10" s="39"/>
+      <c r="W10" s="39"/>
+      <c r="X10" s="39"/>
+      <c r="Y10" s="39"/>
+      <c r="Z10" s="39"/>
+      <c r="AA10" s="39"/>
+      <c r="AB10" s="39"/>
+      <c r="AC10" s="39"/>
+      <c r="AD10" s="39"/>
+      <c r="AE10" s="39"/>
+      <c r="AF10" s="39"/>
+      <c r="AG10" s="40"/>
+      <c r="AH10" s="38" t="s">
+        <v>31</v>
+      </c>
+      <c r="AI10" s="39"/>
+      <c r="AJ10" s="39"/>
+      <c r="AK10" s="39"/>
+      <c r="AL10" s="40"/>
       <c r="AM10" s="5"/>
       <c r="AN10" s="6"/>
     </row>
     <row r="11" spans="2:40" x14ac:dyDescent="0.25">
       <c r="B11" s="4"/>
       <c r="C11" s="5"/>
-      <c r="D11" s="84"/>
-      <c r="E11" s="49"/>
-      <c r="F11" s="49"/>
-      <c r="G11" s="50"/>
-      <c r="H11" s="66" t="s">
-        <v>38</v>
-      </c>
-      <c r="I11" s="67"/>
-      <c r="J11" s="67"/>
-      <c r="K11" s="67"/>
-      <c r="L11" s="67"/>
-      <c r="M11" s="68"/>
-      <c r="N11" s="84" t="s">
-        <v>39</v>
-      </c>
-      <c r="O11" s="49"/>
-      <c r="P11" s="49"/>
-      <c r="Q11" s="50"/>
-      <c r="R11" s="60" t="s">
-        <v>48</v>
-      </c>
-      <c r="S11" s="61"/>
-      <c r="T11" s="62"/>
-      <c r="U11" s="72" t="s">
-        <v>40</v>
-      </c>
-      <c r="V11" s="73"/>
-      <c r="W11" s="73"/>
-      <c r="X11" s="73"/>
-      <c r="Y11" s="73"/>
-      <c r="Z11" s="73"/>
-      <c r="AA11" s="73"/>
-      <c r="AB11" s="73"/>
-      <c r="AC11" s="73"/>
-      <c r="AD11" s="73"/>
-      <c r="AE11" s="73"/>
-      <c r="AF11" s="73"/>
-      <c r="AG11" s="74"/>
-      <c r="AH11" s="85" t="s">
+      <c r="D11" s="53"/>
+      <c r="E11" s="54"/>
+      <c r="F11" s="54"/>
+      <c r="G11" s="55"/>
+      <c r="H11" s="65" t="s">
+        <v>35</v>
+      </c>
+      <c r="I11" s="66"/>
+      <c r="J11" s="66"/>
+      <c r="K11" s="66"/>
+      <c r="L11" s="66"/>
+      <c r="M11" s="67"/>
+      <c r="N11" s="59" t="s">
+        <v>36</v>
+      </c>
+      <c r="O11" s="60"/>
+      <c r="P11" s="60"/>
+      <c r="Q11" s="61"/>
+      <c r="R11" s="72" t="s">
+        <v>47</v>
+      </c>
+      <c r="S11" s="73"/>
+      <c r="T11" s="74"/>
+      <c r="U11" s="84" t="s">
+        <v>37</v>
+      </c>
+      <c r="V11" s="85"/>
+      <c r="W11" s="85"/>
+      <c r="X11" s="85"/>
+      <c r="Y11" s="85"/>
+      <c r="Z11" s="85"/>
+      <c r="AA11" s="85"/>
+      <c r="AB11" s="85"/>
+      <c r="AC11" s="85"/>
+      <c r="AD11" s="85"/>
+      <c r="AE11" s="85"/>
+      <c r="AF11" s="85"/>
+      <c r="AG11" s="86"/>
+      <c r="AH11" s="90" t="s">
         <v>43</v>
       </c>
-      <c r="AI11" s="86"/>
-      <c r="AJ11" s="86"/>
-      <c r="AK11" s="86"/>
-      <c r="AL11" s="87"/>
+      <c r="AI11" s="91"/>
+      <c r="AJ11" s="91"/>
+      <c r="AK11" s="91"/>
+      <c r="AL11" s="92"/>
       <c r="AM11" s="5"/>
       <c r="AN11" s="6"/>
     </row>
-    <row r="12" spans="2:40" ht="65.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:40" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="4"/>
       <c r="C12" s="5"/>
-      <c r="D12" s="51"/>
-      <c r="E12" s="52"/>
-      <c r="F12" s="52"/>
-      <c r="G12" s="53"/>
-      <c r="H12" s="69"/>
-      <c r="I12" s="70"/>
-      <c r="J12" s="70"/>
-      <c r="K12" s="70"/>
-      <c r="L12" s="70"/>
-      <c r="M12" s="71"/>
-      <c r="N12" s="51"/>
-      <c r="O12" s="52"/>
-      <c r="P12" s="52"/>
-      <c r="Q12" s="53"/>
-      <c r="R12" s="63"/>
-      <c r="S12" s="64"/>
-      <c r="T12" s="65"/>
-      <c r="U12" s="75"/>
-      <c r="V12" s="76"/>
-      <c r="W12" s="76"/>
-      <c r="X12" s="76"/>
-      <c r="Y12" s="76"/>
-      <c r="Z12" s="76"/>
-      <c r="AA12" s="76"/>
-      <c r="AB12" s="76"/>
-      <c r="AC12" s="76"/>
-      <c r="AD12" s="76"/>
-      <c r="AE12" s="76"/>
-      <c r="AF12" s="76"/>
-      <c r="AG12" s="77"/>
-      <c r="AH12" s="88"/>
-      <c r="AI12" s="89"/>
-      <c r="AJ12" s="89"/>
-      <c r="AK12" s="89"/>
-      <c r="AL12" s="90"/>
+      <c r="D12" s="56"/>
+      <c r="E12" s="57"/>
+      <c r="F12" s="57"/>
+      <c r="G12" s="58"/>
+      <c r="H12" s="68"/>
+      <c r="I12" s="69"/>
+      <c r="J12" s="69"/>
+      <c r="K12" s="69"/>
+      <c r="L12" s="69"/>
+      <c r="M12" s="70"/>
+      <c r="N12" s="62"/>
+      <c r="O12" s="63"/>
+      <c r="P12" s="63"/>
+      <c r="Q12" s="64"/>
+      <c r="R12" s="75"/>
+      <c r="S12" s="76"/>
+      <c r="T12" s="77"/>
+      <c r="U12" s="87"/>
+      <c r="V12" s="88"/>
+      <c r="W12" s="88"/>
+      <c r="X12" s="88"/>
+      <c r="Y12" s="88"/>
+      <c r="Z12" s="88"/>
+      <c r="AA12" s="88"/>
+      <c r="AB12" s="88"/>
+      <c r="AC12" s="88"/>
+      <c r="AD12" s="88"/>
+      <c r="AE12" s="88"/>
+      <c r="AF12" s="88"/>
+      <c r="AG12" s="89"/>
+      <c r="AH12" s="93"/>
+      <c r="AI12" s="94"/>
+      <c r="AJ12" s="94"/>
+      <c r="AK12" s="94"/>
+      <c r="AL12" s="95"/>
       <c r="AM12" s="5"/>
       <c r="AN12" s="6"/>
     </row>
     <row r="13" spans="2:40" x14ac:dyDescent="0.25">
       <c r="B13" s="4"/>
       <c r="C13" s="5"/>
-      <c r="D13" s="84"/>
-      <c r="E13" s="49"/>
-      <c r="F13" s="49"/>
-      <c r="G13" s="50"/>
-      <c r="H13" s="66"/>
-      <c r="I13" s="67"/>
-      <c r="J13" s="67"/>
-      <c r="K13" s="67"/>
-      <c r="L13" s="67"/>
-      <c r="M13" s="68"/>
-      <c r="N13" s="84"/>
-      <c r="O13" s="49"/>
-      <c r="P13" s="49"/>
-      <c r="Q13" s="50"/>
-      <c r="R13" s="66"/>
-      <c r="S13" s="67"/>
-      <c r="T13" s="68"/>
-      <c r="U13" s="29"/>
-      <c r="V13" s="30"/>
-      <c r="W13" s="30"/>
-      <c r="X13" s="30"/>
-      <c r="Y13" s="30"/>
-      <c r="Z13" s="30"/>
-      <c r="AA13" s="30"/>
-      <c r="AB13" s="30"/>
-      <c r="AC13" s="30"/>
-      <c r="AD13" s="30"/>
-      <c r="AE13" s="30"/>
-      <c r="AF13" s="30"/>
-      <c r="AG13" s="31"/>
-      <c r="AH13" s="48"/>
-      <c r="AI13" s="49"/>
-      <c r="AJ13" s="49"/>
-      <c r="AK13" s="49"/>
-      <c r="AL13" s="50"/>
+      <c r="D13" s="59"/>
+      <c r="E13" s="60"/>
+      <c r="F13" s="60"/>
+      <c r="G13" s="61"/>
+      <c r="H13" s="65" t="s">
+        <v>38</v>
+      </c>
+      <c r="I13" s="66"/>
+      <c r="J13" s="66"/>
+      <c r="K13" s="66"/>
+      <c r="L13" s="66"/>
+      <c r="M13" s="67"/>
+      <c r="N13" s="59" t="s">
+        <v>39</v>
+      </c>
+      <c r="O13" s="60"/>
+      <c r="P13" s="60"/>
+      <c r="Q13" s="61"/>
+      <c r="R13" s="78" t="s">
+        <v>48</v>
+      </c>
+      <c r="S13" s="79"/>
+      <c r="T13" s="80"/>
+      <c r="U13" s="84" t="s">
+        <v>40</v>
+      </c>
+      <c r="V13" s="85"/>
+      <c r="W13" s="85"/>
+      <c r="X13" s="85"/>
+      <c r="Y13" s="85"/>
+      <c r="Z13" s="85"/>
+      <c r="AA13" s="85"/>
+      <c r="AB13" s="85"/>
+      <c r="AC13" s="85"/>
+      <c r="AD13" s="85"/>
+      <c r="AE13" s="85"/>
+      <c r="AF13" s="85"/>
+      <c r="AG13" s="86"/>
+      <c r="AH13" s="90" t="s">
+        <v>43</v>
+      </c>
+      <c r="AI13" s="91"/>
+      <c r="AJ13" s="91"/>
+      <c r="AK13" s="91"/>
+      <c r="AL13" s="92"/>
       <c r="AM13" s="5"/>
       <c r="AN13" s="6"/>
     </row>
-    <row r="14" spans="2:40" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:40" ht="65.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="4"/>
       <c r="C14" s="5"/>
-      <c r="D14" s="51"/>
-      <c r="E14" s="52"/>
-      <c r="F14" s="52"/>
-      <c r="G14" s="53"/>
-      <c r="H14" s="69"/>
-      <c r="I14" s="70"/>
-      <c r="J14" s="70"/>
-      <c r="K14" s="70"/>
-      <c r="L14" s="70"/>
-      <c r="M14" s="71"/>
-      <c r="N14" s="51"/>
-      <c r="O14" s="52"/>
-      <c r="P14" s="52"/>
-      <c r="Q14" s="53"/>
-      <c r="R14" s="69"/>
-      <c r="S14" s="70"/>
-      <c r="T14" s="71"/>
-      <c r="U14" s="32"/>
-      <c r="V14" s="33"/>
-      <c r="W14" s="33"/>
-      <c r="X14" s="33"/>
-      <c r="Y14" s="33"/>
-      <c r="Z14" s="33"/>
-      <c r="AA14" s="33"/>
-      <c r="AB14" s="33"/>
-      <c r="AC14" s="33"/>
-      <c r="AD14" s="33"/>
-      <c r="AE14" s="33"/>
-      <c r="AF14" s="33"/>
-      <c r="AG14" s="34"/>
-      <c r="AH14" s="51"/>
-      <c r="AI14" s="52"/>
-      <c r="AJ14" s="52"/>
-      <c r="AK14" s="52"/>
-      <c r="AL14" s="53"/>
+      <c r="D14" s="62"/>
+      <c r="E14" s="63"/>
+      <c r="F14" s="63"/>
+      <c r="G14" s="64"/>
+      <c r="H14" s="68"/>
+      <c r="I14" s="69"/>
+      <c r="J14" s="69"/>
+      <c r="K14" s="69"/>
+      <c r="L14" s="69"/>
+      <c r="M14" s="70"/>
+      <c r="N14" s="62"/>
+      <c r="O14" s="63"/>
+      <c r="P14" s="63"/>
+      <c r="Q14" s="64"/>
+      <c r="R14" s="81"/>
+      <c r="S14" s="82"/>
+      <c r="T14" s="83"/>
+      <c r="U14" s="87"/>
+      <c r="V14" s="88"/>
+      <c r="W14" s="88"/>
+      <c r="X14" s="88"/>
+      <c r="Y14" s="88"/>
+      <c r="Z14" s="88"/>
+      <c r="AA14" s="88"/>
+      <c r="AB14" s="88"/>
+      <c r="AC14" s="88"/>
+      <c r="AD14" s="88"/>
+      <c r="AE14" s="88"/>
+      <c r="AF14" s="88"/>
+      <c r="AG14" s="89"/>
+      <c r="AH14" s="93"/>
+      <c r="AI14" s="94"/>
+      <c r="AJ14" s="94"/>
+      <c r="AK14" s="94"/>
+      <c r="AL14" s="95"/>
       <c r="AM14" s="5"/>
       <c r="AN14" s="6"/>
     </row>
     <row r="15" spans="2:40" x14ac:dyDescent="0.25">
       <c r="B15" s="4"/>
       <c r="C15" s="5"/>
-      <c r="D15" s="5"/>
-      <c r="E15" s="5"/>
-      <c r="F15" s="5"/>
-      <c r="G15" s="5"/>
-      <c r="H15" s="5"/>
-      <c r="I15" s="5"/>
-      <c r="J15" s="5"/>
-      <c r="K15" s="5"/>
-      <c r="L15" s="5"/>
-      <c r="M15" s="5"/>
-      <c r="N15" s="5"/>
-      <c r="O15" s="5"/>
-      <c r="P15" s="5"/>
-      <c r="R15" s="5"/>
-      <c r="S15" s="5"/>
-      <c r="T15" s="5"/>
-      <c r="U15" s="5"/>
-      <c r="V15" s="5"/>
-      <c r="W15" s="5"/>
-      <c r="X15" s="5"/>
-      <c r="Y15" s="5"/>
-      <c r="Z15" s="5"/>
-      <c r="AA15" s="5"/>
-      <c r="AB15" s="5"/>
-      <c r="AC15" s="5"/>
-      <c r="AD15" s="5"/>
-      <c r="AE15" s="5"/>
-      <c r="AF15" s="5"/>
-      <c r="AG15" s="5"/>
-      <c r="AH15" s="5"/>
-      <c r="AI15" s="5"/>
-      <c r="AJ15" s="5"/>
-      <c r="AK15" s="5"/>
-      <c r="AL15" s="5"/>
+      <c r="D15" s="59"/>
+      <c r="E15" s="60"/>
+      <c r="F15" s="60"/>
+      <c r="G15" s="61"/>
+      <c r="H15" s="65"/>
+      <c r="I15" s="66"/>
+      <c r="J15" s="66"/>
+      <c r="K15" s="66"/>
+      <c r="L15" s="66"/>
+      <c r="M15" s="67"/>
+      <c r="N15" s="59"/>
+      <c r="O15" s="60"/>
+      <c r="P15" s="60"/>
+      <c r="Q15" s="61"/>
+      <c r="R15" s="65"/>
+      <c r="S15" s="66"/>
+      <c r="T15" s="67"/>
+      <c r="U15" s="29"/>
+      <c r="V15" s="30"/>
+      <c r="W15" s="30"/>
+      <c r="X15" s="30"/>
+      <c r="Y15" s="30"/>
+      <c r="Z15" s="30"/>
+      <c r="AA15" s="30"/>
+      <c r="AB15" s="30"/>
+      <c r="AC15" s="30"/>
+      <c r="AD15" s="30"/>
+      <c r="AE15" s="30"/>
+      <c r="AF15" s="30"/>
+      <c r="AG15" s="31"/>
+      <c r="AH15" s="71"/>
+      <c r="AI15" s="60"/>
+      <c r="AJ15" s="60"/>
+      <c r="AK15" s="60"/>
+      <c r="AL15" s="61"/>
       <c r="AM15" s="5"/>
       <c r="AN15" s="6"/>
     </row>
     <row r="16" spans="2:40" x14ac:dyDescent="0.25">
       <c r="B16" s="4"/>
       <c r="C16" s="5"/>
-      <c r="D16" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="E16" s="5"/>
-      <c r="F16" s="5"/>
-      <c r="G16" s="5"/>
-      <c r="H16" s="5"/>
-      <c r="I16" s="5"/>
-      <c r="J16" s="5"/>
-      <c r="K16" s="5"/>
-      <c r="L16" s="5"/>
-      <c r="M16" s="5"/>
-      <c r="N16" s="5"/>
-      <c r="O16" s="5"/>
-      <c r="P16" s="5"/>
-      <c r="Q16" s="5"/>
-      <c r="R16" s="5"/>
-      <c r="S16" s="5"/>
-      <c r="T16" s="5"/>
-      <c r="U16" s="5"/>
-      <c r="V16" s="5"/>
-      <c r="W16" s="5"/>
-      <c r="X16" s="5"/>
-      <c r="Y16" s="5"/>
-      <c r="Z16" s="5"/>
-      <c r="AA16" s="5"/>
-      <c r="AB16" s="5"/>
-      <c r="AC16" s="5"/>
-      <c r="AD16" s="5"/>
-      <c r="AE16" s="5"/>
-      <c r="AF16" s="5"/>
-      <c r="AG16" s="5"/>
-      <c r="AH16" s="5"/>
-      <c r="AI16" s="5"/>
-      <c r="AJ16" s="5"/>
-      <c r="AK16" s="5"/>
-      <c r="AL16" s="5"/>
+      <c r="D16" s="62"/>
+      <c r="E16" s="63"/>
+      <c r="F16" s="63"/>
+      <c r="G16" s="64"/>
+      <c r="H16" s="68"/>
+      <c r="I16" s="69"/>
+      <c r="J16" s="69"/>
+      <c r="K16" s="69"/>
+      <c r="L16" s="69"/>
+      <c r="M16" s="70"/>
+      <c r="N16" s="62"/>
+      <c r="O16" s="63"/>
+      <c r="P16" s="63"/>
+      <c r="Q16" s="64"/>
+      <c r="R16" s="68"/>
+      <c r="S16" s="69"/>
+      <c r="T16" s="70"/>
+      <c r="U16" s="32"/>
+      <c r="V16" s="33"/>
+      <c r="W16" s="33"/>
+      <c r="X16" s="33"/>
+      <c r="Y16" s="33"/>
+      <c r="Z16" s="33"/>
+      <c r="AA16" s="33"/>
+      <c r="AB16" s="33"/>
+      <c r="AC16" s="33"/>
+      <c r="AD16" s="33"/>
+      <c r="AE16" s="33"/>
+      <c r="AF16" s="33"/>
+      <c r="AG16" s="34"/>
+      <c r="AH16" s="62"/>
+      <c r="AI16" s="63"/>
+      <c r="AJ16" s="63"/>
+      <c r="AK16" s="63"/>
+      <c r="AL16" s="64"/>
       <c r="AM16" s="5"/>
       <c r="AN16" s="6"/>
     </row>
-    <row r="17" spans="2:40" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:40" x14ac:dyDescent="0.25">
       <c r="B17" s="4"/>
       <c r="C17" s="5"/>
       <c r="D17" s="5"/>
@@ -9398,7 +9411,6 @@
       <c r="N17" s="5"/>
       <c r="O17" s="5"/>
       <c r="P17" s="5"/>
-      <c r="Q17" s="5"/>
       <c r="R17" s="5"/>
       <c r="S17" s="5"/>
       <c r="T17" s="5"/>
@@ -9424,56 +9436,56 @@
       <c r="AN17" s="6"/>
     </row>
     <row r="18" spans="2:40" x14ac:dyDescent="0.25">
-      <c r="B18" s="1"/>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
-      <c r="F18" s="2"/>
-      <c r="G18" s="2"/>
-      <c r="H18" s="2"/>
-      <c r="I18" s="2"/>
-      <c r="J18" s="2"/>
-      <c r="K18" s="2"/>
-      <c r="L18" s="2"/>
-      <c r="M18" s="2"/>
-      <c r="N18" s="2"/>
-      <c r="O18" s="2"/>
-      <c r="P18" s="2"/>
-      <c r="Q18" s="2"/>
-      <c r="R18" s="2"/>
-      <c r="S18" s="2"/>
-      <c r="T18" s="2"/>
-      <c r="U18" s="2"/>
-      <c r="V18" s="2"/>
-      <c r="W18" s="2"/>
-      <c r="X18" s="2"/>
-      <c r="Y18" s="2"/>
-      <c r="Z18" s="2"/>
-      <c r="AA18" s="2"/>
-      <c r="AB18" s="2"/>
-      <c r="AC18" s="2"/>
-      <c r="AD18" s="2"/>
-      <c r="AE18" s="2"/>
-      <c r="AF18" s="2"/>
-      <c r="AG18" s="2"/>
-      <c r="AH18" s="2"/>
-      <c r="AI18" s="2"/>
-      <c r="AJ18" s="2"/>
-      <c r="AK18" s="2"/>
-      <c r="AL18" s="2"/>
-      <c r="AM18" s="2"/>
-      <c r="AN18" s="3"/>
-    </row>
-    <row r="19" spans="2:40" x14ac:dyDescent="0.25">
+      <c r="B18" s="4"/>
+      <c r="C18" s="5"/>
+      <c r="D18" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18" s="5"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="5"/>
+      <c r="H18" s="5"/>
+      <c r="I18" s="5"/>
+      <c r="J18" s="5"/>
+      <c r="K18" s="5"/>
+      <c r="L18" s="5"/>
+      <c r="M18" s="5"/>
+      <c r="N18" s="5"/>
+      <c r="O18" s="5"/>
+      <c r="P18" s="5"/>
+      <c r="Q18" s="5"/>
+      <c r="R18" s="5"/>
+      <c r="S18" s="5"/>
+      <c r="T18" s="5"/>
+      <c r="U18" s="5"/>
+      <c r="V18" s="5"/>
+      <c r="W18" s="5"/>
+      <c r="X18" s="5"/>
+      <c r="Y18" s="5"/>
+      <c r="Z18" s="5"/>
+      <c r="AA18" s="5"/>
+      <c r="AB18" s="5"/>
+      <c r="AC18" s="5"/>
+      <c r="AD18" s="5"/>
+      <c r="AE18" s="5"/>
+      <c r="AF18" s="5"/>
+      <c r="AG18" s="5"/>
+      <c r="AH18" s="5"/>
+      <c r="AI18" s="5"/>
+      <c r="AJ18" s="5"/>
+      <c r="AK18" s="5"/>
+      <c r="AL18" s="5"/>
+      <c r="AM18" s="5"/>
+      <c r="AN18" s="6"/>
+    </row>
+    <row r="19" spans="2:40" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B19" s="4"/>
       <c r="C19" s="5"/>
-      <c r="D19" s="5" t="s">
-        <v>4</v>
-      </c>
+      <c r="D19" s="5"/>
       <c r="E19" s="5"/>
       <c r="F19" s="5"/>
       <c r="G19" s="5"/>
-      <c r="H19" s="11"/>
+      <c r="H19" s="5"/>
       <c r="I19" s="5"/>
       <c r="J19" s="5"/>
       <c r="K19" s="5"/>
@@ -9497,9 +9509,7 @@
       <c r="AC19" s="5"/>
       <c r="AD19" s="5"/>
       <c r="AE19" s="5"/>
-      <c r="AF19" s="5" t="s">
-        <v>5</v>
-      </c>
+      <c r="AF19" s="5"/>
       <c r="AG19" s="5"/>
       <c r="AH19" s="5"/>
       <c r="AI19" s="5"/>
@@ -9509,66 +9519,152 @@
       <c r="AM19" s="5"/>
       <c r="AN19" s="6"/>
     </row>
-    <row r="20" spans="2:40" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="7"/>
-      <c r="C20" s="8"/>
-      <c r="D20" s="8"/>
-      <c r="E20" s="8"/>
-      <c r="F20" s="8"/>
-      <c r="G20" s="8"/>
-      <c r="H20" s="8"/>
-      <c r="I20" s="8"/>
-      <c r="J20" s="8"/>
-      <c r="K20" s="8"/>
-      <c r="L20" s="8"/>
-      <c r="M20" s="8"/>
-      <c r="N20" s="8"/>
-      <c r="O20" s="8"/>
-      <c r="P20" s="8"/>
-      <c r="Q20" s="8"/>
-      <c r="R20" s="8"/>
-      <c r="S20" s="8"/>
-      <c r="T20" s="8"/>
-      <c r="U20" s="8"/>
-      <c r="V20" s="8"/>
-      <c r="W20" s="8"/>
-      <c r="X20" s="8"/>
-      <c r="Y20" s="8"/>
-      <c r="Z20" s="8"/>
-      <c r="AA20" s="8"/>
-      <c r="AB20" s="8"/>
-      <c r="AC20" s="8"/>
-      <c r="AD20" s="8"/>
-      <c r="AE20" s="8"/>
-      <c r="AF20" s="8"/>
-      <c r="AG20" s="8"/>
-      <c r="AH20" s="8"/>
-      <c r="AI20" s="8"/>
-      <c r="AJ20" s="8"/>
-      <c r="AK20" s="8"/>
-      <c r="AL20" s="8"/>
-      <c r="AM20" s="8"/>
-      <c r="AN20" s="9"/>
+    <row r="20" spans="2:40" x14ac:dyDescent="0.25">
+      <c r="B20" s="1"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="2"/>
+      <c r="H20" s="2"/>
+      <c r="I20" s="2"/>
+      <c r="J20" s="2"/>
+      <c r="K20" s="2"/>
+      <c r="L20" s="2"/>
+      <c r="M20" s="2"/>
+      <c r="N20" s="2"/>
+      <c r="O20" s="2"/>
+      <c r="P20" s="2"/>
+      <c r="Q20" s="2"/>
+      <c r="R20" s="2"/>
+      <c r="S20" s="2"/>
+      <c r="T20" s="2"/>
+      <c r="U20" s="2"/>
+      <c r="V20" s="2"/>
+      <c r="W20" s="2"/>
+      <c r="X20" s="2"/>
+      <c r="Y20" s="2"/>
+      <c r="Z20" s="2"/>
+      <c r="AA20" s="2"/>
+      <c r="AB20" s="2"/>
+      <c r="AC20" s="2"/>
+      <c r="AD20" s="2"/>
+      <c r="AE20" s="2"/>
+      <c r="AF20" s="2"/>
+      <c r="AG20" s="2"/>
+      <c r="AH20" s="2"/>
+      <c r="AI20" s="2"/>
+      <c r="AJ20" s="2"/>
+      <c r="AK20" s="2"/>
+      <c r="AL20" s="2"/>
+      <c r="AM20" s="2"/>
+      <c r="AN20" s="3"/>
+    </row>
+    <row r="21" spans="2:40" x14ac:dyDescent="0.25">
+      <c r="B21" s="4"/>
+      <c r="C21" s="5"/>
+      <c r="D21" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E21" s="5"/>
+      <c r="F21" s="5"/>
+      <c r="G21" s="5"/>
+      <c r="H21" s="11"/>
+      <c r="I21" s="5"/>
+      <c r="J21" s="5"/>
+      <c r="K21" s="5"/>
+      <c r="L21" s="5"/>
+      <c r="M21" s="5"/>
+      <c r="N21" s="5"/>
+      <c r="O21" s="5"/>
+      <c r="P21" s="5"/>
+      <c r="Q21" s="5"/>
+      <c r="R21" s="5"/>
+      <c r="S21" s="5"/>
+      <c r="T21" s="5"/>
+      <c r="U21" s="5"/>
+      <c r="V21" s="5"/>
+      <c r="W21" s="5"/>
+      <c r="X21" s="5"/>
+      <c r="Y21" s="5"/>
+      <c r="Z21" s="5"/>
+      <c r="AA21" s="5"/>
+      <c r="AB21" s="5"/>
+      <c r="AC21" s="5"/>
+      <c r="AD21" s="5"/>
+      <c r="AE21" s="5"/>
+      <c r="AF21" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="AG21" s="5"/>
+      <c r="AH21" s="5"/>
+      <c r="AI21" s="5"/>
+      <c r="AJ21" s="5"/>
+      <c r="AK21" s="5"/>
+      <c r="AL21" s="5"/>
+      <c r="AM21" s="5"/>
+      <c r="AN21" s="6"/>
+    </row>
+    <row r="22" spans="2:40" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B22" s="7"/>
+      <c r="C22" s="8"/>
+      <c r="D22" s="8"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="8"/>
+      <c r="G22" s="8"/>
+      <c r="H22" s="8"/>
+      <c r="I22" s="8"/>
+      <c r="J22" s="8"/>
+      <c r="K22" s="8"/>
+      <c r="L22" s="8"/>
+      <c r="M22" s="8"/>
+      <c r="N22" s="8"/>
+      <c r="O22" s="8"/>
+      <c r="P22" s="8"/>
+      <c r="Q22" s="8"/>
+      <c r="R22" s="8"/>
+      <c r="S22" s="8"/>
+      <c r="T22" s="8"/>
+      <c r="U22" s="8"/>
+      <c r="V22" s="8"/>
+      <c r="W22" s="8"/>
+      <c r="X22" s="8"/>
+      <c r="Y22" s="8"/>
+      <c r="Z22" s="8"/>
+      <c r="AA22" s="8"/>
+      <c r="AB22" s="8"/>
+      <c r="AC22" s="8"/>
+      <c r="AD22" s="8"/>
+      <c r="AE22" s="8"/>
+      <c r="AF22" s="8"/>
+      <c r="AG22" s="8"/>
+      <c r="AH22" s="8"/>
+      <c r="AI22" s="8"/>
+      <c r="AJ22" s="8"/>
+      <c r="AK22" s="8"/>
+      <c r="AL22" s="8"/>
+      <c r="AM22" s="8"/>
+      <c r="AN22" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="D9:G10"/>
+    <mergeCell ref="AH15:AL16"/>
+    <mergeCell ref="R11:T12"/>
+    <mergeCell ref="R13:T14"/>
+    <mergeCell ref="R15:T16"/>
+    <mergeCell ref="U11:AG12"/>
+    <mergeCell ref="U13:AG14"/>
+    <mergeCell ref="AH11:AL12"/>
+    <mergeCell ref="AH13:AL14"/>
     <mergeCell ref="D11:G12"/>
     <mergeCell ref="D13:G14"/>
+    <mergeCell ref="D15:G16"/>
+    <mergeCell ref="H15:M16"/>
+    <mergeCell ref="N13:Q14"/>
+    <mergeCell ref="N15:Q16"/>
+    <mergeCell ref="N11:Q12"/>
+    <mergeCell ref="H11:M12"/>
     <mergeCell ref="H13:M14"/>
-    <mergeCell ref="N11:Q12"/>
-    <mergeCell ref="N13:Q14"/>
-    <mergeCell ref="N9:Q10"/>
-    <mergeCell ref="H9:M10"/>
-    <mergeCell ref="H11:M12"/>
-    <mergeCell ref="AH13:AL14"/>
-    <mergeCell ref="R9:T10"/>
-    <mergeCell ref="R11:T12"/>
-    <mergeCell ref="R13:T14"/>
-    <mergeCell ref="U9:AG10"/>
-    <mergeCell ref="U11:AG12"/>
-    <mergeCell ref="AH9:AL10"/>
-    <mergeCell ref="AH11:AL12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -10735,10 +10831,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:AN21"/>
+  <dimension ref="B1:AN22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="BL13" sqref="BL13"/>
+      <selection activeCell="AY11" sqref="AY11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10928,15 +11024,11 @@
       </c>
       <c r="E6" s="19"/>
       <c r="F6" s="19"/>
-      <c r="G6" s="27" t="s">
-        <v>45</v>
-      </c>
-      <c r="H6" s="22"/>
-      <c r="I6" s="22"/>
-      <c r="J6" s="22"/>
-      <c r="K6" s="28" t="s">
-        <v>15</v>
-      </c>
+      <c r="G6" s="19"/>
+      <c r="H6" s="19"/>
+      <c r="I6" s="19"/>
+      <c r="J6" s="18"/>
+      <c r="K6" s="19"/>
       <c r="L6" s="19"/>
       <c r="M6" s="19"/>
       <c r="N6" s="19"/>
@@ -11010,32 +11102,38 @@
     <row r="8" spans="2:40" x14ac:dyDescent="0.25">
       <c r="B8" s="4"/>
       <c r="C8" s="5"/>
-      <c r="D8" s="91" t="s">
+      <c r="D8" s="96" t="s">
         <v>41</v>
       </c>
-      <c r="E8" s="92"/>
-      <c r="F8" s="92"/>
-      <c r="G8" s="92"/>
-      <c r="H8" s="92"/>
-      <c r="I8" s="92"/>
-      <c r="J8" s="92"/>
-      <c r="K8" s="92"/>
-      <c r="L8" s="92"/>
-      <c r="M8" s="92"/>
-      <c r="N8" s="92"/>
-      <c r="O8" s="92"/>
-      <c r="P8" s="93"/>
+      <c r="E8" s="97"/>
+      <c r="F8" s="97"/>
+      <c r="G8" s="97"/>
+      <c r="H8" s="97"/>
+      <c r="I8" s="97"/>
+      <c r="J8" s="97"/>
+      <c r="K8" s="97"/>
+      <c r="L8" s="97"/>
+      <c r="M8" s="97"/>
+      <c r="N8" s="97"/>
+      <c r="O8" s="97"/>
+      <c r="P8" s="98"/>
       <c r="R8" s="5"/>
-      <c r="S8" s="5"/>
-      <c r="T8" s="5"/>
-      <c r="U8" s="5"/>
-      <c r="V8" s="5"/>
-      <c r="W8" s="5"/>
+      <c r="S8" s="27" t="s">
+        <v>45</v>
+      </c>
+      <c r="T8" s="22"/>
+      <c r="U8" s="22"/>
+      <c r="V8" s="22"/>
+      <c r="W8" s="28" t="s">
+        <v>15</v>
+      </c>
       <c r="X8" s="5"/>
       <c r="Y8" s="5"/>
-      <c r="Z8" s="5"/>
-      <c r="AA8" s="5"/>
-      <c r="AB8" s="5"/>
+      <c r="Z8" s="21" t="s">
+        <v>73</v>
+      </c>
+      <c r="AA8" s="22"/>
+      <c r="AB8" s="23"/>
       <c r="AC8" s="5"/>
       <c r="AD8" s="5"/>
       <c r="AE8" s="5"/>
@@ -11052,362 +11150,360 @@
     <row r="9" spans="2:40" x14ac:dyDescent="0.25">
       <c r="B9" s="4"/>
       <c r="C9" s="5"/>
-      <c r="D9" s="24" t="s">
-        <v>28</v>
-      </c>
-      <c r="E9" s="25"/>
-      <c r="F9" s="25"/>
-      <c r="G9" s="26"/>
-      <c r="H9" s="21" t="s">
-        <v>29</v>
-      </c>
-      <c r="I9" s="22"/>
-      <c r="J9" s="22"/>
-      <c r="K9" s="22"/>
-      <c r="L9" s="22"/>
-      <c r="M9" s="23"/>
-      <c r="N9" s="21" t="s">
-        <v>32</v>
-      </c>
-      <c r="O9" s="22"/>
-      <c r="P9" s="22"/>
-      <c r="Q9" s="23"/>
-      <c r="R9" s="21" t="s">
-        <v>30</v>
-      </c>
-      <c r="S9" s="22"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="125"/>
+      <c r="F9" s="125"/>
+      <c r="G9" s="125"/>
+      <c r="H9" s="48"/>
+      <c r="I9" s="48"/>
+      <c r="J9" s="48"/>
+      <c r="K9" s="48"/>
+      <c r="L9" s="48"/>
+      <c r="M9" s="48"/>
+      <c r="N9" s="48"/>
+      <c r="O9" s="48"/>
+      <c r="P9" s="48"/>
+      <c r="R9" s="5"/>
+      <c r="S9" s="126"/>
       <c r="T9" s="22"/>
       <c r="U9" s="22"/>
       <c r="V9" s="22"/>
-      <c r="W9" s="22"/>
-      <c r="X9" s="22"/>
-      <c r="Y9" s="22"/>
-      <c r="Z9" s="22"/>
-      <c r="AA9" s="22"/>
-      <c r="AB9" s="22"/>
-      <c r="AC9" s="22"/>
-      <c r="AD9" s="22"/>
-      <c r="AE9" s="22"/>
-      <c r="AF9" s="22"/>
-      <c r="AG9" s="23"/>
-      <c r="AH9" s="21" t="s">
-        <v>31</v>
-      </c>
-      <c r="AI9" s="22"/>
-      <c r="AJ9" s="22"/>
-      <c r="AK9" s="22"/>
-      <c r="AL9" s="23"/>
+      <c r="W9" s="127"/>
+      <c r="X9" s="5"/>
+      <c r="Y9" s="5"/>
+      <c r="Z9" s="5"/>
+      <c r="AA9" s="5"/>
+      <c r="AB9" s="5"/>
+      <c r="AC9" s="5"/>
+      <c r="AD9" s="5"/>
+      <c r="AE9" s="5"/>
+      <c r="AF9" s="5"/>
+      <c r="AG9" s="5"/>
+      <c r="AH9" s="5"/>
+      <c r="AI9" s="5"/>
+      <c r="AJ9" s="5"/>
+      <c r="AK9" s="5"/>
+      <c r="AL9" s="5"/>
       <c r="AM9" s="5"/>
       <c r="AN9" s="6"/>
     </row>
     <row r="10" spans="2:40" x14ac:dyDescent="0.25">
       <c r="B10" s="4"/>
       <c r="C10" s="5"/>
-      <c r="D10" s="78"/>
-      <c r="E10" s="79"/>
-      <c r="F10" s="79"/>
-      <c r="G10" s="80"/>
-      <c r="H10" s="66" t="s">
-        <v>35</v>
-      </c>
-      <c r="I10" s="67"/>
-      <c r="J10" s="67"/>
-      <c r="K10" s="67"/>
-      <c r="L10" s="67"/>
-      <c r="M10" s="68"/>
-      <c r="N10" s="84" t="s">
-        <v>36</v>
-      </c>
-      <c r="O10" s="49"/>
-      <c r="P10" s="49"/>
-      <c r="Q10" s="50"/>
-      <c r="R10" s="66" t="s">
-        <v>37</v>
-      </c>
-      <c r="S10" s="67"/>
-      <c r="T10" s="67"/>
-      <c r="U10" s="67"/>
-      <c r="V10" s="67"/>
-      <c r="W10" s="67"/>
-      <c r="X10" s="67"/>
-      <c r="Y10" s="67"/>
-      <c r="Z10" s="67"/>
-      <c r="AA10" s="67"/>
-      <c r="AB10" s="67"/>
-      <c r="AC10" s="67"/>
-      <c r="AD10" s="67"/>
-      <c r="AE10" s="67"/>
-      <c r="AF10" s="67"/>
-      <c r="AG10" s="68"/>
-      <c r="AH10" s="48" t="s">
-        <v>33</v>
-      </c>
-      <c r="AI10" s="49"/>
-      <c r="AJ10" s="49"/>
-      <c r="AK10" s="49"/>
-      <c r="AL10" s="50"/>
+      <c r="D10" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="E10" s="25"/>
+      <c r="F10" s="25"/>
+      <c r="G10" s="26"/>
+      <c r="H10" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="I10" s="22"/>
+      <c r="J10" s="22"/>
+      <c r="K10" s="22"/>
+      <c r="L10" s="22"/>
+      <c r="M10" s="23"/>
+      <c r="N10" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="O10" s="22"/>
+      <c r="P10" s="22"/>
+      <c r="Q10" s="23"/>
+      <c r="R10" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="S10" s="22"/>
+      <c r="T10" s="22"/>
+      <c r="U10" s="22"/>
+      <c r="V10" s="22"/>
+      <c r="W10" s="22"/>
+      <c r="X10" s="22"/>
+      <c r="Y10" s="22"/>
+      <c r="Z10" s="22"/>
+      <c r="AA10" s="22"/>
+      <c r="AB10" s="22"/>
+      <c r="AC10" s="22"/>
+      <c r="AD10" s="22"/>
+      <c r="AE10" s="22"/>
+      <c r="AF10" s="22"/>
+      <c r="AG10" s="23"/>
+      <c r="AH10" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="AI10" s="22"/>
+      <c r="AJ10" s="22"/>
+      <c r="AK10" s="22"/>
+      <c r="AL10" s="23"/>
       <c r="AM10" s="5"/>
       <c r="AN10" s="6"/>
     </row>
-    <row r="11" spans="2:40" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:40" x14ac:dyDescent="0.25">
       <c r="B11" s="4"/>
       <c r="C11" s="5"/>
-      <c r="D11" s="81"/>
-      <c r="E11" s="82"/>
-      <c r="F11" s="82"/>
-      <c r="G11" s="83"/>
-      <c r="H11" s="69"/>
-      <c r="I11" s="70"/>
-      <c r="J11" s="70"/>
-      <c r="K11" s="70"/>
-      <c r="L11" s="70"/>
-      <c r="M11" s="71"/>
-      <c r="N11" s="51"/>
-      <c r="O11" s="52"/>
-      <c r="P11" s="52"/>
-      <c r="Q11" s="53"/>
-      <c r="R11" s="69"/>
-      <c r="S11" s="70"/>
-      <c r="T11" s="70"/>
-      <c r="U11" s="70"/>
-      <c r="V11" s="70"/>
-      <c r="W11" s="70"/>
-      <c r="X11" s="70"/>
-      <c r="Y11" s="70"/>
-      <c r="Z11" s="70"/>
-      <c r="AA11" s="70"/>
-      <c r="AB11" s="70"/>
-      <c r="AC11" s="70"/>
-      <c r="AD11" s="70"/>
-      <c r="AE11" s="70"/>
-      <c r="AF11" s="70"/>
-      <c r="AG11" s="71"/>
-      <c r="AH11" s="51"/>
-      <c r="AI11" s="52"/>
-      <c r="AJ11" s="52"/>
-      <c r="AK11" s="52"/>
-      <c r="AL11" s="53"/>
+      <c r="D11" s="53"/>
+      <c r="E11" s="54"/>
+      <c r="F11" s="54"/>
+      <c r="G11" s="55"/>
+      <c r="H11" s="65" t="s">
+        <v>35</v>
+      </c>
+      <c r="I11" s="66"/>
+      <c r="J11" s="66"/>
+      <c r="K11" s="66"/>
+      <c r="L11" s="66"/>
+      <c r="M11" s="67"/>
+      <c r="N11" s="59" t="s">
+        <v>36</v>
+      </c>
+      <c r="O11" s="60"/>
+      <c r="P11" s="60"/>
+      <c r="Q11" s="61"/>
+      <c r="R11" s="65" t="s">
+        <v>37</v>
+      </c>
+      <c r="S11" s="66"/>
+      <c r="T11" s="66"/>
+      <c r="U11" s="66"/>
+      <c r="V11" s="66"/>
+      <c r="W11" s="66"/>
+      <c r="X11" s="66"/>
+      <c r="Y11" s="66"/>
+      <c r="Z11" s="66"/>
+      <c r="AA11" s="66"/>
+      <c r="AB11" s="66"/>
+      <c r="AC11" s="66"/>
+      <c r="AD11" s="66"/>
+      <c r="AE11" s="66"/>
+      <c r="AF11" s="66"/>
+      <c r="AG11" s="67"/>
+      <c r="AH11" s="71" t="s">
+        <v>33</v>
+      </c>
+      <c r="AI11" s="60"/>
+      <c r="AJ11" s="60"/>
+      <c r="AK11" s="60"/>
+      <c r="AL11" s="61"/>
       <c r="AM11" s="5"/>
       <c r="AN11" s="6"/>
     </row>
-    <row r="12" spans="2:40" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:40" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="4"/>
       <c r="C12" s="5"/>
-      <c r="D12" s="84"/>
-      <c r="E12" s="49"/>
-      <c r="F12" s="49"/>
-      <c r="G12" s="50"/>
-      <c r="H12" s="66" t="s">
-        <v>38</v>
-      </c>
-      <c r="I12" s="67"/>
-      <c r="J12" s="67"/>
-      <c r="K12" s="67"/>
-      <c r="L12" s="67"/>
-      <c r="M12" s="68"/>
-      <c r="N12" s="84" t="s">
-        <v>39</v>
-      </c>
-      <c r="O12" s="49"/>
-      <c r="P12" s="49"/>
-      <c r="Q12" s="50"/>
-      <c r="R12" s="66" t="s">
-        <v>40</v>
-      </c>
-      <c r="S12" s="67"/>
-      <c r="T12" s="67"/>
-      <c r="U12" s="67"/>
-      <c r="V12" s="67"/>
-      <c r="W12" s="67"/>
-      <c r="X12" s="67"/>
-      <c r="Y12" s="67"/>
-      <c r="Z12" s="67"/>
-      <c r="AA12" s="67"/>
-      <c r="AB12" s="67"/>
-      <c r="AC12" s="67"/>
-      <c r="AD12" s="67"/>
-      <c r="AE12" s="67"/>
-      <c r="AF12" s="67"/>
-      <c r="AG12" s="68"/>
-      <c r="AH12" s="48" t="s">
-        <v>33</v>
-      </c>
-      <c r="AI12" s="49"/>
-      <c r="AJ12" s="49"/>
-      <c r="AK12" s="49"/>
-      <c r="AL12" s="50"/>
+      <c r="D12" s="56"/>
+      <c r="E12" s="57"/>
+      <c r="F12" s="57"/>
+      <c r="G12" s="58"/>
+      <c r="H12" s="68"/>
+      <c r="I12" s="69"/>
+      <c r="J12" s="69"/>
+      <c r="K12" s="69"/>
+      <c r="L12" s="69"/>
+      <c r="M12" s="70"/>
+      <c r="N12" s="62"/>
+      <c r="O12" s="63"/>
+      <c r="P12" s="63"/>
+      <c r="Q12" s="64"/>
+      <c r="R12" s="68"/>
+      <c r="S12" s="69"/>
+      <c r="T12" s="69"/>
+      <c r="U12" s="69"/>
+      <c r="V12" s="69"/>
+      <c r="W12" s="69"/>
+      <c r="X12" s="69"/>
+      <c r="Y12" s="69"/>
+      <c r="Z12" s="69"/>
+      <c r="AA12" s="69"/>
+      <c r="AB12" s="69"/>
+      <c r="AC12" s="69"/>
+      <c r="AD12" s="69"/>
+      <c r="AE12" s="69"/>
+      <c r="AF12" s="69"/>
+      <c r="AG12" s="70"/>
+      <c r="AH12" s="62"/>
+      <c r="AI12" s="63"/>
+      <c r="AJ12" s="63"/>
+      <c r="AK12" s="63"/>
+      <c r="AL12" s="64"/>
       <c r="AM12" s="5"/>
       <c r="AN12" s="6"/>
     </row>
-    <row r="13" spans="2:40" ht="65.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:40" x14ac:dyDescent="0.25">
       <c r="B13" s="4"/>
       <c r="C13" s="5"/>
-      <c r="D13" s="51"/>
-      <c r="E13" s="52"/>
-      <c r="F13" s="52"/>
-      <c r="G13" s="53"/>
-      <c r="H13" s="69"/>
-      <c r="I13" s="70"/>
-      <c r="J13" s="70"/>
-      <c r="K13" s="70"/>
-      <c r="L13" s="70"/>
-      <c r="M13" s="71"/>
-      <c r="N13" s="51"/>
-      <c r="O13" s="52"/>
-      <c r="P13" s="52"/>
-      <c r="Q13" s="53"/>
-      <c r="R13" s="69"/>
-      <c r="S13" s="70"/>
-      <c r="T13" s="70"/>
-      <c r="U13" s="70"/>
-      <c r="V13" s="70"/>
-      <c r="W13" s="70"/>
-      <c r="X13" s="70"/>
-      <c r="Y13" s="70"/>
-      <c r="Z13" s="70"/>
-      <c r="AA13" s="70"/>
-      <c r="AB13" s="70"/>
-      <c r="AC13" s="70"/>
-      <c r="AD13" s="70"/>
-      <c r="AE13" s="70"/>
-      <c r="AF13" s="70"/>
-      <c r="AG13" s="71"/>
-      <c r="AH13" s="51"/>
-      <c r="AI13" s="52"/>
-      <c r="AJ13" s="52"/>
-      <c r="AK13" s="52"/>
-      <c r="AL13" s="53"/>
+      <c r="D13" s="59"/>
+      <c r="E13" s="60"/>
+      <c r="F13" s="60"/>
+      <c r="G13" s="61"/>
+      <c r="H13" s="65" t="s">
+        <v>38</v>
+      </c>
+      <c r="I13" s="66"/>
+      <c r="J13" s="66"/>
+      <c r="K13" s="66"/>
+      <c r="L13" s="66"/>
+      <c r="M13" s="67"/>
+      <c r="N13" s="59" t="s">
+        <v>39</v>
+      </c>
+      <c r="O13" s="60"/>
+      <c r="P13" s="60"/>
+      <c r="Q13" s="61"/>
+      <c r="R13" s="65" t="s">
+        <v>40</v>
+      </c>
+      <c r="S13" s="66"/>
+      <c r="T13" s="66"/>
+      <c r="U13" s="66"/>
+      <c r="V13" s="66"/>
+      <c r="W13" s="66"/>
+      <c r="X13" s="66"/>
+      <c r="Y13" s="66"/>
+      <c r="Z13" s="66"/>
+      <c r="AA13" s="66"/>
+      <c r="AB13" s="66"/>
+      <c r="AC13" s="66"/>
+      <c r="AD13" s="66"/>
+      <c r="AE13" s="66"/>
+      <c r="AF13" s="66"/>
+      <c r="AG13" s="67"/>
+      <c r="AH13" s="71" t="s">
+        <v>33</v>
+      </c>
+      <c r="AI13" s="60"/>
+      <c r="AJ13" s="60"/>
+      <c r="AK13" s="60"/>
+      <c r="AL13" s="61"/>
       <c r="AM13" s="5"/>
       <c r="AN13" s="6"/>
     </row>
-    <row r="14" spans="2:40" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:40" ht="65.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="4"/>
       <c r="C14" s="5"/>
-      <c r="D14" s="84"/>
-      <c r="E14" s="49"/>
-      <c r="F14" s="49"/>
-      <c r="G14" s="50"/>
-      <c r="H14" s="66"/>
-      <c r="I14" s="67"/>
-      <c r="J14" s="67"/>
-      <c r="K14" s="67"/>
-      <c r="L14" s="67"/>
-      <c r="M14" s="68"/>
-      <c r="N14" s="84"/>
-      <c r="O14" s="49"/>
-      <c r="P14" s="49"/>
-      <c r="Q14" s="50"/>
-      <c r="R14" s="66"/>
-      <c r="S14" s="67"/>
-      <c r="T14" s="67"/>
-      <c r="U14" s="67"/>
-      <c r="V14" s="67"/>
-      <c r="W14" s="67"/>
-      <c r="X14" s="67"/>
-      <c r="Y14" s="67"/>
-      <c r="Z14" s="67"/>
-      <c r="AA14" s="67"/>
-      <c r="AB14" s="67"/>
-      <c r="AC14" s="67"/>
-      <c r="AD14" s="67"/>
-      <c r="AE14" s="67"/>
-      <c r="AF14" s="67"/>
-      <c r="AG14" s="68"/>
-      <c r="AH14" s="48"/>
-      <c r="AI14" s="49"/>
-      <c r="AJ14" s="49"/>
-      <c r="AK14" s="49"/>
-      <c r="AL14" s="50"/>
+      <c r="D14" s="62"/>
+      <c r="E14" s="63"/>
+      <c r="F14" s="63"/>
+      <c r="G14" s="64"/>
+      <c r="H14" s="68"/>
+      <c r="I14" s="69"/>
+      <c r="J14" s="69"/>
+      <c r="K14" s="69"/>
+      <c r="L14" s="69"/>
+      <c r="M14" s="70"/>
+      <c r="N14" s="62"/>
+      <c r="O14" s="63"/>
+      <c r="P14" s="63"/>
+      <c r="Q14" s="64"/>
+      <c r="R14" s="68"/>
+      <c r="S14" s="69"/>
+      <c r="T14" s="69"/>
+      <c r="U14" s="69"/>
+      <c r="V14" s="69"/>
+      <c r="W14" s="69"/>
+      <c r="X14" s="69"/>
+      <c r="Y14" s="69"/>
+      <c r="Z14" s="69"/>
+      <c r="AA14" s="69"/>
+      <c r="AB14" s="69"/>
+      <c r="AC14" s="69"/>
+      <c r="AD14" s="69"/>
+      <c r="AE14" s="69"/>
+      <c r="AF14" s="69"/>
+      <c r="AG14" s="70"/>
+      <c r="AH14" s="62"/>
+      <c r="AI14" s="63"/>
+      <c r="AJ14" s="63"/>
+      <c r="AK14" s="63"/>
+      <c r="AL14" s="64"/>
       <c r="AM14" s="5"/>
       <c r="AN14" s="6"/>
     </row>
     <row r="15" spans="2:40" x14ac:dyDescent="0.25">
       <c r="B15" s="4"/>
       <c r="C15" s="5"/>
-      <c r="D15" s="51"/>
-      <c r="E15" s="52"/>
-      <c r="F15" s="52"/>
-      <c r="G15" s="53"/>
-      <c r="H15" s="69"/>
-      <c r="I15" s="70"/>
-      <c r="J15" s="70"/>
-      <c r="K15" s="70"/>
-      <c r="L15" s="70"/>
-      <c r="M15" s="71"/>
-      <c r="N15" s="51"/>
-      <c r="O15" s="52"/>
-      <c r="P15" s="52"/>
-      <c r="Q15" s="53"/>
-      <c r="R15" s="69"/>
-      <c r="S15" s="70"/>
-      <c r="T15" s="70"/>
-      <c r="U15" s="70"/>
-      <c r="V15" s="70"/>
-      <c r="W15" s="70"/>
-      <c r="X15" s="70"/>
-      <c r="Y15" s="70"/>
-      <c r="Z15" s="70"/>
-      <c r="AA15" s="70"/>
-      <c r="AB15" s="70"/>
-      <c r="AC15" s="70"/>
-      <c r="AD15" s="70"/>
-      <c r="AE15" s="70"/>
-      <c r="AF15" s="70"/>
-      <c r="AG15" s="71"/>
-      <c r="AH15" s="51"/>
-      <c r="AI15" s="52"/>
-      <c r="AJ15" s="52"/>
-      <c r="AK15" s="52"/>
-      <c r="AL15" s="53"/>
+      <c r="D15" s="59"/>
+      <c r="E15" s="60"/>
+      <c r="F15" s="60"/>
+      <c r="G15" s="61"/>
+      <c r="H15" s="65"/>
+      <c r="I15" s="66"/>
+      <c r="J15" s="66"/>
+      <c r="K15" s="66"/>
+      <c r="L15" s="66"/>
+      <c r="M15" s="67"/>
+      <c r="N15" s="59"/>
+      <c r="O15" s="60"/>
+      <c r="P15" s="60"/>
+      <c r="Q15" s="61"/>
+      <c r="R15" s="65"/>
+      <c r="S15" s="66"/>
+      <c r="T15" s="66"/>
+      <c r="U15" s="66"/>
+      <c r="V15" s="66"/>
+      <c r="W15" s="66"/>
+      <c r="X15" s="66"/>
+      <c r="Y15" s="66"/>
+      <c r="Z15" s="66"/>
+      <c r="AA15" s="66"/>
+      <c r="AB15" s="66"/>
+      <c r="AC15" s="66"/>
+      <c r="AD15" s="66"/>
+      <c r="AE15" s="66"/>
+      <c r="AF15" s="66"/>
+      <c r="AG15" s="67"/>
+      <c r="AH15" s="71"/>
+      <c r="AI15" s="60"/>
+      <c r="AJ15" s="60"/>
+      <c r="AK15" s="60"/>
+      <c r="AL15" s="61"/>
       <c r="AM15" s="5"/>
       <c r="AN15" s="6"/>
     </row>
     <row r="16" spans="2:40" x14ac:dyDescent="0.25">
       <c r="B16" s="4"/>
       <c r="C16" s="5"/>
-      <c r="D16" s="5"/>
-      <c r="E16" s="5"/>
-      <c r="F16" s="5"/>
-      <c r="G16" s="5"/>
-      <c r="H16" s="5"/>
-      <c r="I16" s="5"/>
-      <c r="J16" s="5"/>
-      <c r="K16" s="5"/>
-      <c r="L16" s="5"/>
-      <c r="M16" s="5"/>
-      <c r="N16" s="5"/>
-      <c r="O16" s="5"/>
-      <c r="P16" s="5"/>
-      <c r="R16" s="5"/>
-      <c r="S16" s="5"/>
-      <c r="T16" s="5"/>
-      <c r="U16" s="5"/>
-      <c r="V16" s="5"/>
-      <c r="W16" s="5"/>
-      <c r="X16" s="5"/>
-      <c r="Y16" s="5"/>
-      <c r="Z16" s="5"/>
-      <c r="AA16" s="5"/>
-      <c r="AB16" s="5"/>
-      <c r="AC16" s="5"/>
-      <c r="AD16" s="5"/>
-      <c r="AE16" s="5"/>
-      <c r="AF16" s="5"/>
-      <c r="AG16" s="5"/>
-      <c r="AH16" s="5"/>
-      <c r="AI16" s="5"/>
-      <c r="AJ16" s="5"/>
-      <c r="AK16" s="5"/>
-      <c r="AL16" s="5"/>
+      <c r="D16" s="62"/>
+      <c r="E16" s="63"/>
+      <c r="F16" s="63"/>
+      <c r="G16" s="64"/>
+      <c r="H16" s="68"/>
+      <c r="I16" s="69"/>
+      <c r="J16" s="69"/>
+      <c r="K16" s="69"/>
+      <c r="L16" s="69"/>
+      <c r="M16" s="70"/>
+      <c r="N16" s="62"/>
+      <c r="O16" s="63"/>
+      <c r="P16" s="63"/>
+      <c r="Q16" s="64"/>
+      <c r="R16" s="68"/>
+      <c r="S16" s="69"/>
+      <c r="T16" s="69"/>
+      <c r="U16" s="69"/>
+      <c r="V16" s="69"/>
+      <c r="W16" s="69"/>
+      <c r="X16" s="69"/>
+      <c r="Y16" s="69"/>
+      <c r="Z16" s="69"/>
+      <c r="AA16" s="69"/>
+      <c r="AB16" s="69"/>
+      <c r="AC16" s="69"/>
+      <c r="AD16" s="69"/>
+      <c r="AE16" s="69"/>
+      <c r="AF16" s="69"/>
+      <c r="AG16" s="70"/>
+      <c r="AH16" s="62"/>
+      <c r="AI16" s="63"/>
+      <c r="AJ16" s="63"/>
+      <c r="AK16" s="63"/>
+      <c r="AL16" s="64"/>
       <c r="AM16" s="5"/>
       <c r="AN16" s="6"/>
     </row>
     <row r="17" spans="2:40" x14ac:dyDescent="0.25">
       <c r="B17" s="4"/>
       <c r="C17" s="5"/>
-      <c r="D17" s="16" t="s">
-        <v>21</v>
-      </c>
+      <c r="D17" s="5"/>
       <c r="E17" s="5"/>
       <c r="F17" s="5"/>
       <c r="G17" s="5"/>
@@ -11420,7 +11516,6 @@
       <c r="N17" s="5"/>
       <c r="O17" s="5"/>
       <c r="P17" s="5"/>
-      <c r="Q17" s="5"/>
       <c r="R17" s="5"/>
       <c r="S17" s="5"/>
       <c r="T17" s="5"/>
@@ -11445,10 +11540,12 @@
       <c r="AM17" s="5"/>
       <c r="AN17" s="6"/>
     </row>
-    <row r="18" spans="2:40" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:40" x14ac:dyDescent="0.25">
       <c r="B18" s="4"/>
       <c r="C18" s="5"/>
-      <c r="D18" s="5"/>
+      <c r="D18" s="16" t="s">
+        <v>21</v>
+      </c>
       <c r="E18" s="5"/>
       <c r="F18" s="5"/>
       <c r="G18" s="5"/>
@@ -11486,151 +11583,192 @@
       <c r="AM18" s="5"/>
       <c r="AN18" s="6"/>
     </row>
-    <row r="19" spans="2:40" x14ac:dyDescent="0.25">
-      <c r="B19" s="1"/>
-      <c r="C19" s="2"/>
-      <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
-      <c r="F19" s="2"/>
-      <c r="G19" s="2"/>
-      <c r="H19" s="2"/>
-      <c r="I19" s="2"/>
-      <c r="J19" s="2"/>
-      <c r="K19" s="2"/>
-      <c r="L19" s="2"/>
-      <c r="M19" s="2"/>
-      <c r="N19" s="2"/>
-      <c r="O19" s="2"/>
-      <c r="P19" s="2"/>
-      <c r="Q19" s="2"/>
-      <c r="R19" s="2"/>
-      <c r="S19" s="2"/>
-      <c r="T19" s="2"/>
-      <c r="U19" s="2"/>
-      <c r="V19" s="2"/>
-      <c r="W19" s="2"/>
-      <c r="X19" s="2"/>
-      <c r="Y19" s="2"/>
-      <c r="Z19" s="2"/>
-      <c r="AA19" s="2"/>
-      <c r="AB19" s="2"/>
-      <c r="AC19" s="2"/>
-      <c r="AD19" s="2"/>
-      <c r="AE19" s="2"/>
-      <c r="AF19" s="2"/>
-      <c r="AG19" s="2"/>
-      <c r="AH19" s="2"/>
-      <c r="AI19" s="2"/>
-      <c r="AJ19" s="2"/>
-      <c r="AK19" s="2"/>
-      <c r="AL19" s="2"/>
-      <c r="AM19" s="2"/>
-      <c r="AN19" s="3"/>
+    <row r="19" spans="2:40" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B19" s="4"/>
+      <c r="C19" s="5"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="5"/>
+      <c r="G19" s="5"/>
+      <c r="H19" s="5"/>
+      <c r="I19" s="5"/>
+      <c r="J19" s="5"/>
+      <c r="K19" s="5"/>
+      <c r="L19" s="5"/>
+      <c r="M19" s="5"/>
+      <c r="N19" s="5"/>
+      <c r="O19" s="5"/>
+      <c r="P19" s="5"/>
+      <c r="Q19" s="5"/>
+      <c r="R19" s="5"/>
+      <c r="S19" s="5"/>
+      <c r="T19" s="5"/>
+      <c r="U19" s="5"/>
+      <c r="V19" s="5"/>
+      <c r="W19" s="5"/>
+      <c r="X19" s="5"/>
+      <c r="Y19" s="5"/>
+      <c r="Z19" s="5"/>
+      <c r="AA19" s="5"/>
+      <c r="AB19" s="5"/>
+      <c r="AC19" s="5"/>
+      <c r="AD19" s="5"/>
+      <c r="AE19" s="5"/>
+      <c r="AF19" s="5"/>
+      <c r="AG19" s="5"/>
+      <c r="AH19" s="5"/>
+      <c r="AI19" s="5"/>
+      <c r="AJ19" s="5"/>
+      <c r="AK19" s="5"/>
+      <c r="AL19" s="5"/>
+      <c r="AM19" s="5"/>
+      <c r="AN19" s="6"/>
     </row>
     <row r="20" spans="2:40" x14ac:dyDescent="0.25">
-      <c r="B20" s="4"/>
-      <c r="C20" s="5"/>
-      <c r="D20" s="5" t="s">
+      <c r="B20" s="1"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="2"/>
+      <c r="H20" s="2"/>
+      <c r="I20" s="2"/>
+      <c r="J20" s="2"/>
+      <c r="K20" s="2"/>
+      <c r="L20" s="2"/>
+      <c r="M20" s="2"/>
+      <c r="N20" s="2"/>
+      <c r="O20" s="2"/>
+      <c r="P20" s="2"/>
+      <c r="Q20" s="2"/>
+      <c r="R20" s="2"/>
+      <c r="S20" s="2"/>
+      <c r="T20" s="2"/>
+      <c r="U20" s="2"/>
+      <c r="V20" s="2"/>
+      <c r="W20" s="2"/>
+      <c r="X20" s="2"/>
+      <c r="Y20" s="2"/>
+      <c r="Z20" s="2"/>
+      <c r="AA20" s="2"/>
+      <c r="AB20" s="2"/>
+      <c r="AC20" s="2"/>
+      <c r="AD20" s="2"/>
+      <c r="AE20" s="2"/>
+      <c r="AF20" s="2"/>
+      <c r="AG20" s="2"/>
+      <c r="AH20" s="2"/>
+      <c r="AI20" s="2"/>
+      <c r="AJ20" s="2"/>
+      <c r="AK20" s="2"/>
+      <c r="AL20" s="2"/>
+      <c r="AM20" s="2"/>
+      <c r="AN20" s="3"/>
+    </row>
+    <row r="21" spans="2:40" x14ac:dyDescent="0.25">
+      <c r="B21" s="4"/>
+      <c r="C21" s="5"/>
+      <c r="D21" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="E20" s="5"/>
-      <c r="F20" s="5"/>
-      <c r="G20" s="5"/>
-      <c r="H20" s="11"/>
-      <c r="I20" s="5"/>
-      <c r="J20" s="5"/>
-      <c r="K20" s="5"/>
-      <c r="L20" s="5"/>
-      <c r="M20" s="5"/>
-      <c r="N20" s="5"/>
-      <c r="O20" s="5"/>
-      <c r="P20" s="5"/>
-      <c r="Q20" s="5"/>
-      <c r="R20" s="5"/>
-      <c r="S20" s="5"/>
-      <c r="T20" s="5"/>
-      <c r="U20" s="5"/>
-      <c r="V20" s="5"/>
-      <c r="W20" s="5"/>
-      <c r="X20" s="5"/>
-      <c r="Y20" s="5"/>
-      <c r="Z20" s="5"/>
-      <c r="AA20" s="5"/>
-      <c r="AB20" s="5"/>
-      <c r="AC20" s="5"/>
-      <c r="AD20" s="5"/>
-      <c r="AE20" s="5"/>
-      <c r="AF20" s="5" t="s">
+      <c r="E21" s="5"/>
+      <c r="F21" s="5"/>
+      <c r="G21" s="5"/>
+      <c r="H21" s="11"/>
+      <c r="I21" s="5"/>
+      <c r="J21" s="5"/>
+      <c r="K21" s="5"/>
+      <c r="L21" s="5"/>
+      <c r="M21" s="5"/>
+      <c r="N21" s="5"/>
+      <c r="O21" s="5"/>
+      <c r="P21" s="5"/>
+      <c r="Q21" s="5"/>
+      <c r="R21" s="5"/>
+      <c r="S21" s="5"/>
+      <c r="T21" s="5"/>
+      <c r="U21" s="5"/>
+      <c r="V21" s="5"/>
+      <c r="W21" s="5"/>
+      <c r="X21" s="5"/>
+      <c r="Y21" s="5"/>
+      <c r="Z21" s="5"/>
+      <c r="AA21" s="5"/>
+      <c r="AB21" s="5"/>
+      <c r="AC21" s="5"/>
+      <c r="AD21" s="5"/>
+      <c r="AE21" s="5"/>
+      <c r="AF21" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="AG20" s="5"/>
-      <c r="AH20" s="5"/>
-      <c r="AI20" s="5"/>
-      <c r="AJ20" s="5"/>
-      <c r="AK20" s="5"/>
-      <c r="AL20" s="5"/>
-      <c r="AM20" s="5"/>
-      <c r="AN20" s="6"/>
-    </row>
-    <row r="21" spans="2:40" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="7"/>
-      <c r="C21" s="8"/>
-      <c r="D21" s="8"/>
-      <c r="E21" s="8"/>
-      <c r="F21" s="8"/>
-      <c r="G21" s="8"/>
-      <c r="H21" s="8"/>
-      <c r="I21" s="8"/>
-      <c r="J21" s="8"/>
-      <c r="K21" s="8"/>
-      <c r="L21" s="8"/>
-      <c r="M21" s="8"/>
-      <c r="N21" s="8"/>
-      <c r="O21" s="8"/>
-      <c r="P21" s="8"/>
-      <c r="Q21" s="8"/>
-      <c r="R21" s="8"/>
-      <c r="S21" s="8"/>
-      <c r="T21" s="8"/>
-      <c r="U21" s="8"/>
-      <c r="V21" s="8"/>
-      <c r="W21" s="8"/>
-      <c r="X21" s="8"/>
-      <c r="Y21" s="8"/>
-      <c r="Z21" s="8"/>
-      <c r="AA21" s="8"/>
-      <c r="AB21" s="8"/>
-      <c r="AC21" s="8"/>
-      <c r="AD21" s="8"/>
-      <c r="AE21" s="8"/>
-      <c r="AF21" s="8"/>
-      <c r="AG21" s="8"/>
-      <c r="AH21" s="8"/>
-      <c r="AI21" s="8"/>
-      <c r="AJ21" s="8"/>
-      <c r="AK21" s="8"/>
-      <c r="AL21" s="8"/>
-      <c r="AM21" s="8"/>
-      <c r="AN21" s="9"/>
+      <c r="AG21" s="5"/>
+      <c r="AH21" s="5"/>
+      <c r="AI21" s="5"/>
+      <c r="AJ21" s="5"/>
+      <c r="AK21" s="5"/>
+      <c r="AL21" s="5"/>
+      <c r="AM21" s="5"/>
+      <c r="AN21" s="6"/>
+    </row>
+    <row r="22" spans="2:40" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B22" s="7"/>
+      <c r="C22" s="8"/>
+      <c r="D22" s="8"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="8"/>
+      <c r="G22" s="8"/>
+      <c r="H22" s="8"/>
+      <c r="I22" s="8"/>
+      <c r="J22" s="8"/>
+      <c r="K22" s="8"/>
+      <c r="L22" s="8"/>
+      <c r="M22" s="8"/>
+      <c r="N22" s="8"/>
+      <c r="O22" s="8"/>
+      <c r="P22" s="8"/>
+      <c r="Q22" s="8"/>
+      <c r="R22" s="8"/>
+      <c r="S22" s="8"/>
+      <c r="T22" s="8"/>
+      <c r="U22" s="8"/>
+      <c r="V22" s="8"/>
+      <c r="W22" s="8"/>
+      <c r="X22" s="8"/>
+      <c r="Y22" s="8"/>
+      <c r="Z22" s="8"/>
+      <c r="AA22" s="8"/>
+      <c r="AB22" s="8"/>
+      <c r="AC22" s="8"/>
+      <c r="AD22" s="8"/>
+      <c r="AE22" s="8"/>
+      <c r="AF22" s="8"/>
+      <c r="AG22" s="8"/>
+      <c r="AH22" s="8"/>
+      <c r="AI22" s="8"/>
+      <c r="AJ22" s="8"/>
+      <c r="AK22" s="8"/>
+      <c r="AL22" s="8"/>
+      <c r="AM22" s="8"/>
+      <c r="AN22" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="AH10:AL11"/>
-    <mergeCell ref="D12:G13"/>
-    <mergeCell ref="H12:M13"/>
-    <mergeCell ref="N12:Q13"/>
-    <mergeCell ref="R12:AG13"/>
-    <mergeCell ref="AH12:AL13"/>
+    <mergeCell ref="D15:G16"/>
+    <mergeCell ref="H15:M16"/>
+    <mergeCell ref="N15:Q16"/>
+    <mergeCell ref="R15:AG16"/>
+    <mergeCell ref="AH15:AL16"/>
     <mergeCell ref="D8:P8"/>
-    <mergeCell ref="D10:G11"/>
-    <mergeCell ref="H10:M11"/>
-    <mergeCell ref="N10:Q11"/>
-    <mergeCell ref="R10:AG11"/>
-    <mergeCell ref="D14:G15"/>
-    <mergeCell ref="H14:M15"/>
-    <mergeCell ref="N14:Q15"/>
-    <mergeCell ref="R14:AG15"/>
-    <mergeCell ref="AH14:AL15"/>
+    <mergeCell ref="D11:G12"/>
+    <mergeCell ref="H11:M12"/>
+    <mergeCell ref="N11:Q12"/>
+    <mergeCell ref="R11:AG12"/>
+    <mergeCell ref="AH11:AL12"/>
+    <mergeCell ref="D13:G14"/>
+    <mergeCell ref="H13:M14"/>
+    <mergeCell ref="N13:Q14"/>
+    <mergeCell ref="R13:AG14"/>
+    <mergeCell ref="AH13:AL14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/jsp-servlet/SaleManagement/doc/Sale Management UI.xlsx
+++ b/jsp-servlet/SaleManagement/doc/Sale Management UI.xlsx
@@ -2,9 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+  <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" firstSheet="2" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" firstSheet="2" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="index" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
     <sheet name="checkout" sheetId="10" r:id="rId10"/>
     <sheet name="Sheet2" sheetId="11" r:id="rId11"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="74">
   <si>
     <t>Welcome to Sale Management System</t>
   </si>
@@ -285,9 +285,6 @@
     <t>Category</t>
   </si>
   <si>
-    <t>Chọn Hình</t>
-  </si>
-  <si>
     <t>Product</t>
   </si>
   <si>
@@ -320,11 +317,14 @@
   <si>
     <t>Search</t>
   </si>
+  <si>
+    <t>Change</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -774,25 +774,18 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
@@ -808,27 +801,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -868,6 +840,24 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
@@ -903,6 +893,27 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -911,24 +922,6 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -984,16 +977,23 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3173,7 +3173,7 @@
       <c r="B6" s="4"/>
       <c r="C6" s="5"/>
       <c r="D6" s="18" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E6" s="19"/>
       <c r="F6" s="19"/>
@@ -3274,12 +3274,12 @@
       <c r="P8" s="39"/>
       <c r="Q8" s="40"/>
       <c r="R8" s="38" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="S8" s="39"/>
       <c r="T8" s="40"/>
       <c r="U8" s="38" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="V8" s="39"/>
       <c r="W8" s="39"/>
@@ -3306,203 +3306,203 @@
     <row r="9" spans="2:40" x14ac:dyDescent="0.25">
       <c r="B9" s="4"/>
       <c r="C9" s="5"/>
-      <c r="D9" s="53"/>
-      <c r="E9" s="54"/>
-      <c r="F9" s="54"/>
-      <c r="G9" s="55"/>
-      <c r="H9" s="65" t="s">
+      <c r="D9" s="94"/>
+      <c r="E9" s="95"/>
+      <c r="F9" s="95"/>
+      <c r="G9" s="96"/>
+      <c r="H9" s="76" t="s">
         <v>35</v>
       </c>
-      <c r="I9" s="66"/>
-      <c r="J9" s="66"/>
-      <c r="K9" s="66"/>
-      <c r="L9" s="66"/>
-      <c r="M9" s="67"/>
-      <c r="N9" s="59" t="s">
+      <c r="I9" s="77"/>
+      <c r="J9" s="77"/>
+      <c r="K9" s="77"/>
+      <c r="L9" s="77"/>
+      <c r="M9" s="78"/>
+      <c r="N9" s="100" t="s">
         <v>36</v>
       </c>
-      <c r="O9" s="60"/>
-      <c r="P9" s="60"/>
-      <c r="Q9" s="61"/>
-      <c r="R9" s="111">
+      <c r="O9" s="59"/>
+      <c r="P9" s="59"/>
+      <c r="Q9" s="60"/>
+      <c r="R9" s="110">
         <v>2</v>
       </c>
-      <c r="S9" s="112"/>
-      <c r="T9" s="113"/>
-      <c r="U9" s="84" t="s">
-        <v>67</v>
-      </c>
-      <c r="V9" s="85"/>
-      <c r="W9" s="85"/>
-      <c r="X9" s="85"/>
-      <c r="Y9" s="85"/>
-      <c r="Z9" s="85"/>
-      <c r="AA9" s="85"/>
-      <c r="AB9" s="85"/>
-      <c r="AC9" s="85"/>
-      <c r="AD9" s="85"/>
-      <c r="AE9" s="85"/>
-      <c r="AF9" s="85"/>
-      <c r="AG9" s="86"/>
-      <c r="AH9" s="117"/>
-      <c r="AI9" s="118"/>
-      <c r="AJ9" s="118"/>
-      <c r="AK9" s="118"/>
-      <c r="AL9" s="119"/>
+      <c r="S9" s="111"/>
+      <c r="T9" s="112"/>
+      <c r="U9" s="82" t="s">
+        <v>66</v>
+      </c>
+      <c r="V9" s="83"/>
+      <c r="W9" s="83"/>
+      <c r="X9" s="83"/>
+      <c r="Y9" s="83"/>
+      <c r="Z9" s="83"/>
+      <c r="AA9" s="83"/>
+      <c r="AB9" s="83"/>
+      <c r="AC9" s="83"/>
+      <c r="AD9" s="83"/>
+      <c r="AE9" s="83"/>
+      <c r="AF9" s="83"/>
+      <c r="AG9" s="84"/>
+      <c r="AH9" s="116"/>
+      <c r="AI9" s="117"/>
+      <c r="AJ9" s="117"/>
+      <c r="AK9" s="117"/>
+      <c r="AL9" s="118"/>
       <c r="AM9" s="5"/>
       <c r="AN9" s="6"/>
     </row>
     <row r="10" spans="2:40" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="4"/>
       <c r="C10" s="5"/>
-      <c r="D10" s="56"/>
-      <c r="E10" s="57"/>
-      <c r="F10" s="57"/>
-      <c r="G10" s="58"/>
-      <c r="H10" s="68"/>
-      <c r="I10" s="69"/>
-      <c r="J10" s="69"/>
-      <c r="K10" s="69"/>
-      <c r="L10" s="69"/>
-      <c r="M10" s="70"/>
-      <c r="N10" s="62"/>
-      <c r="O10" s="63"/>
-      <c r="P10" s="63"/>
-      <c r="Q10" s="64"/>
-      <c r="R10" s="114"/>
-      <c r="S10" s="115"/>
-      <c r="T10" s="116"/>
-      <c r="U10" s="87"/>
-      <c r="V10" s="88"/>
-      <c r="W10" s="88"/>
-      <c r="X10" s="88"/>
-      <c r="Y10" s="88"/>
-      <c r="Z10" s="88"/>
-      <c r="AA10" s="88"/>
-      <c r="AB10" s="88"/>
-      <c r="AC10" s="88"/>
-      <c r="AD10" s="88"/>
-      <c r="AE10" s="88"/>
-      <c r="AF10" s="88"/>
-      <c r="AG10" s="89"/>
-      <c r="AH10" s="120"/>
-      <c r="AI10" s="121"/>
-      <c r="AJ10" s="121"/>
-      <c r="AK10" s="121"/>
-      <c r="AL10" s="122"/>
+      <c r="D10" s="97"/>
+      <c r="E10" s="98"/>
+      <c r="F10" s="98"/>
+      <c r="G10" s="99"/>
+      <c r="H10" s="79"/>
+      <c r="I10" s="80"/>
+      <c r="J10" s="80"/>
+      <c r="K10" s="80"/>
+      <c r="L10" s="80"/>
+      <c r="M10" s="81"/>
+      <c r="N10" s="61"/>
+      <c r="O10" s="62"/>
+      <c r="P10" s="62"/>
+      <c r="Q10" s="63"/>
+      <c r="R10" s="113"/>
+      <c r="S10" s="114"/>
+      <c r="T10" s="115"/>
+      <c r="U10" s="85"/>
+      <c r="V10" s="86"/>
+      <c r="W10" s="86"/>
+      <c r="X10" s="86"/>
+      <c r="Y10" s="86"/>
+      <c r="Z10" s="86"/>
+      <c r="AA10" s="86"/>
+      <c r="AB10" s="86"/>
+      <c r="AC10" s="86"/>
+      <c r="AD10" s="86"/>
+      <c r="AE10" s="86"/>
+      <c r="AF10" s="86"/>
+      <c r="AG10" s="87"/>
+      <c r="AH10" s="119"/>
+      <c r="AI10" s="120"/>
+      <c r="AJ10" s="120"/>
+      <c r="AK10" s="120"/>
+      <c r="AL10" s="121"/>
       <c r="AM10" s="5"/>
       <c r="AN10" s="6"/>
     </row>
     <row r="11" spans="2:40" x14ac:dyDescent="0.25">
       <c r="B11" s="4"/>
       <c r="C11" s="5"/>
-      <c r="D11" s="59"/>
-      <c r="E11" s="60"/>
-      <c r="F11" s="60"/>
-      <c r="G11" s="61"/>
-      <c r="H11" s="65" t="s">
+      <c r="D11" s="100"/>
+      <c r="E11" s="59"/>
+      <c r="F11" s="59"/>
+      <c r="G11" s="60"/>
+      <c r="H11" s="76" t="s">
         <v>38</v>
       </c>
-      <c r="I11" s="66"/>
-      <c r="J11" s="66"/>
-      <c r="K11" s="66"/>
-      <c r="L11" s="66"/>
-      <c r="M11" s="67"/>
-      <c r="N11" s="59" t="s">
+      <c r="I11" s="77"/>
+      <c r="J11" s="77"/>
+      <c r="K11" s="77"/>
+      <c r="L11" s="77"/>
+      <c r="M11" s="78"/>
+      <c r="N11" s="100" t="s">
         <v>39</v>
       </c>
-      <c r="O11" s="60"/>
-      <c r="P11" s="60"/>
-      <c r="Q11" s="61"/>
-      <c r="R11" s="99">
+      <c r="O11" s="59"/>
+      <c r="P11" s="59"/>
+      <c r="Q11" s="60"/>
+      <c r="R11" s="122">
         <v>1</v>
       </c>
-      <c r="S11" s="100"/>
-      <c r="T11" s="101"/>
-      <c r="U11" s="84" t="s">
+      <c r="S11" s="123"/>
+      <c r="T11" s="124"/>
+      <c r="U11" s="82" t="s">
         <v>39</v>
       </c>
-      <c r="V11" s="85"/>
-      <c r="W11" s="85"/>
-      <c r="X11" s="85"/>
-      <c r="Y11" s="85"/>
-      <c r="Z11" s="85"/>
-      <c r="AA11" s="85"/>
-      <c r="AB11" s="85"/>
-      <c r="AC11" s="85"/>
-      <c r="AD11" s="85"/>
-      <c r="AE11" s="85"/>
-      <c r="AF11" s="85"/>
-      <c r="AG11" s="86"/>
-      <c r="AH11" s="105"/>
-      <c r="AI11" s="106"/>
-      <c r="AJ11" s="106"/>
-      <c r="AK11" s="106"/>
-      <c r="AL11" s="107"/>
+      <c r="V11" s="83"/>
+      <c r="W11" s="83"/>
+      <c r="X11" s="83"/>
+      <c r="Y11" s="83"/>
+      <c r="Z11" s="83"/>
+      <c r="AA11" s="83"/>
+      <c r="AB11" s="83"/>
+      <c r="AC11" s="83"/>
+      <c r="AD11" s="83"/>
+      <c r="AE11" s="83"/>
+      <c r="AF11" s="83"/>
+      <c r="AG11" s="84"/>
+      <c r="AH11" s="104"/>
+      <c r="AI11" s="105"/>
+      <c r="AJ11" s="105"/>
+      <c r="AK11" s="105"/>
+      <c r="AL11" s="106"/>
       <c r="AM11" s="5"/>
       <c r="AN11" s="6"/>
     </row>
     <row r="12" spans="2:40" ht="65.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="4"/>
       <c r="C12" s="5"/>
-      <c r="D12" s="62"/>
-      <c r="E12" s="63"/>
-      <c r="F12" s="63"/>
-      <c r="G12" s="64"/>
-      <c r="H12" s="68"/>
-      <c r="I12" s="69"/>
-      <c r="J12" s="69"/>
-      <c r="K12" s="69"/>
-      <c r="L12" s="69"/>
-      <c r="M12" s="70"/>
-      <c r="N12" s="62"/>
-      <c r="O12" s="63"/>
-      <c r="P12" s="63"/>
-      <c r="Q12" s="64"/>
-      <c r="R12" s="102"/>
-      <c r="S12" s="103"/>
-      <c r="T12" s="104"/>
-      <c r="U12" s="87"/>
-      <c r="V12" s="88"/>
-      <c r="W12" s="88"/>
-      <c r="X12" s="88"/>
-      <c r="Y12" s="88"/>
-      <c r="Z12" s="88"/>
-      <c r="AA12" s="88"/>
-      <c r="AB12" s="88"/>
-      <c r="AC12" s="88"/>
-      <c r="AD12" s="88"/>
-      <c r="AE12" s="88"/>
-      <c r="AF12" s="88"/>
-      <c r="AG12" s="89"/>
-      <c r="AH12" s="108"/>
-      <c r="AI12" s="109"/>
-      <c r="AJ12" s="109"/>
-      <c r="AK12" s="109"/>
-      <c r="AL12" s="110"/>
+      <c r="D12" s="61"/>
+      <c r="E12" s="62"/>
+      <c r="F12" s="62"/>
+      <c r="G12" s="63"/>
+      <c r="H12" s="79"/>
+      <c r="I12" s="80"/>
+      <c r="J12" s="80"/>
+      <c r="K12" s="80"/>
+      <c r="L12" s="80"/>
+      <c r="M12" s="81"/>
+      <c r="N12" s="61"/>
+      <c r="O12" s="62"/>
+      <c r="P12" s="62"/>
+      <c r="Q12" s="63"/>
+      <c r="R12" s="125"/>
+      <c r="S12" s="126"/>
+      <c r="T12" s="127"/>
+      <c r="U12" s="85"/>
+      <c r="V12" s="86"/>
+      <c r="W12" s="86"/>
+      <c r="X12" s="86"/>
+      <c r="Y12" s="86"/>
+      <c r="Z12" s="86"/>
+      <c r="AA12" s="86"/>
+      <c r="AB12" s="86"/>
+      <c r="AC12" s="86"/>
+      <c r="AD12" s="86"/>
+      <c r="AE12" s="86"/>
+      <c r="AF12" s="86"/>
+      <c r="AG12" s="87"/>
+      <c r="AH12" s="107"/>
+      <c r="AI12" s="108"/>
+      <c r="AJ12" s="108"/>
+      <c r="AK12" s="108"/>
+      <c r="AL12" s="109"/>
       <c r="AM12" s="5"/>
       <c r="AN12" s="6"/>
     </row>
     <row r="13" spans="2:40" x14ac:dyDescent="0.25">
       <c r="B13" s="4"/>
       <c r="C13" s="5"/>
-      <c r="D13" s="59"/>
-      <c r="E13" s="60"/>
-      <c r="F13" s="60"/>
-      <c r="G13" s="61"/>
-      <c r="H13" s="65"/>
-      <c r="I13" s="66"/>
-      <c r="J13" s="66"/>
-      <c r="K13" s="66"/>
-      <c r="L13" s="66"/>
-      <c r="M13" s="67"/>
-      <c r="N13" s="59"/>
-      <c r="O13" s="60"/>
-      <c r="P13" s="60"/>
-      <c r="Q13" s="61"/>
-      <c r="R13" s="65"/>
-      <c r="S13" s="66"/>
-      <c r="T13" s="67"/>
+      <c r="D13" s="100"/>
+      <c r="E13" s="59"/>
+      <c r="F13" s="59"/>
+      <c r="G13" s="60"/>
+      <c r="H13" s="76"/>
+      <c r="I13" s="77"/>
+      <c r="J13" s="77"/>
+      <c r="K13" s="77"/>
+      <c r="L13" s="77"/>
+      <c r="M13" s="78"/>
+      <c r="N13" s="100"/>
+      <c r="O13" s="59"/>
+      <c r="P13" s="59"/>
+      <c r="Q13" s="60"/>
+      <c r="R13" s="76"/>
+      <c r="S13" s="77"/>
+      <c r="T13" s="78"/>
       <c r="U13" s="29"/>
       <c r="V13" s="30"/>
       <c r="W13" s="30"/>
@@ -3516,34 +3516,34 @@
       <c r="AE13" s="30"/>
       <c r="AF13" s="30"/>
       <c r="AG13" s="31"/>
-      <c r="AH13" s="71"/>
-      <c r="AI13" s="60"/>
-      <c r="AJ13" s="60"/>
-      <c r="AK13" s="60"/>
-      <c r="AL13" s="61"/>
+      <c r="AH13" s="58"/>
+      <c r="AI13" s="59"/>
+      <c r="AJ13" s="59"/>
+      <c r="AK13" s="59"/>
+      <c r="AL13" s="60"/>
       <c r="AM13" s="5"/>
       <c r="AN13" s="6"/>
     </row>
     <row r="14" spans="2:40" x14ac:dyDescent="0.25">
       <c r="B14" s="4"/>
       <c r="C14" s="5"/>
-      <c r="D14" s="62"/>
-      <c r="E14" s="63"/>
-      <c r="F14" s="63"/>
-      <c r="G14" s="64"/>
-      <c r="H14" s="68"/>
-      <c r="I14" s="69"/>
-      <c r="J14" s="69"/>
-      <c r="K14" s="69"/>
-      <c r="L14" s="69"/>
-      <c r="M14" s="70"/>
-      <c r="N14" s="62"/>
-      <c r="O14" s="63"/>
-      <c r="P14" s="63"/>
-      <c r="Q14" s="64"/>
-      <c r="R14" s="68"/>
-      <c r="S14" s="69"/>
-      <c r="T14" s="70"/>
+      <c r="D14" s="61"/>
+      <c r="E14" s="62"/>
+      <c r="F14" s="62"/>
+      <c r="G14" s="63"/>
+      <c r="H14" s="79"/>
+      <c r="I14" s="80"/>
+      <c r="J14" s="80"/>
+      <c r="K14" s="80"/>
+      <c r="L14" s="80"/>
+      <c r="M14" s="81"/>
+      <c r="N14" s="61"/>
+      <c r="O14" s="62"/>
+      <c r="P14" s="62"/>
+      <c r="Q14" s="63"/>
+      <c r="R14" s="79"/>
+      <c r="S14" s="80"/>
+      <c r="T14" s="81"/>
       <c r="U14" s="32"/>
       <c r="V14" s="33"/>
       <c r="W14" s="33"/>
@@ -3557,11 +3557,11 @@
       <c r="AE14" s="33"/>
       <c r="AF14" s="33"/>
       <c r="AG14" s="34"/>
-      <c r="AH14" s="62"/>
-      <c r="AI14" s="63"/>
-      <c r="AJ14" s="63"/>
-      <c r="AK14" s="63"/>
-      <c r="AL14" s="64"/>
+      <c r="AH14" s="61"/>
+      <c r="AI14" s="62"/>
+      <c r="AJ14" s="62"/>
+      <c r="AK14" s="62"/>
+      <c r="AL14" s="63"/>
       <c r="AM14" s="5"/>
       <c r="AN14" s="6"/>
     </row>
@@ -3634,11 +3634,11 @@
       <c r="AA16" s="5"/>
       <c r="AB16" s="5"/>
       <c r="AG16" s="10" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="AH16" s="5"/>
       <c r="AI16" s="52" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="AJ16" s="5"/>
       <c r="AK16" s="5"/>
@@ -3865,16 +3865,21 @@
     </row>
     <row r="52" spans="52:52" ht="31.5" x14ac:dyDescent="0.25">
       <c r="AZ52" s="49" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="53" spans="52:52" ht="31.5" x14ac:dyDescent="0.25">
       <c r="AZ53" s="49" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="D13:G14"/>
+    <mergeCell ref="H13:M14"/>
+    <mergeCell ref="N13:Q14"/>
+    <mergeCell ref="R13:T14"/>
+    <mergeCell ref="AH13:AL14"/>
     <mergeCell ref="AH11:AL12"/>
     <mergeCell ref="D9:G10"/>
     <mergeCell ref="H9:M10"/>
@@ -3887,11 +3892,6 @@
     <mergeCell ref="N11:Q12"/>
     <mergeCell ref="R11:T12"/>
     <mergeCell ref="U11:AG12"/>
-    <mergeCell ref="D13:G14"/>
-    <mergeCell ref="H13:M14"/>
-    <mergeCell ref="N13:Q14"/>
-    <mergeCell ref="R13:T14"/>
-    <mergeCell ref="AH13:AL14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -8737,7 +8737,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:AN22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="BC12" sqref="BC12"/>
     </sheetView>
   </sheetViews>
@@ -8920,11 +8920,11 @@
       <c r="B6" s="4"/>
       <c r="C6" s="5"/>
       <c r="D6" s="18" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E6" s="19"/>
       <c r="F6" s="19"/>
-      <c r="G6" s="124"/>
+      <c r="G6" s="54"/>
       <c r="H6" s="19"/>
       <c r="I6" s="19"/>
       <c r="J6" s="19"/>
@@ -9008,17 +9008,17 @@
       <c r="E8" s="22"/>
       <c r="F8" s="22"/>
       <c r="G8" s="23"/>
-      <c r="H8" s="123" t="s">
+      <c r="H8" s="53" t="s">
         <v>15</v>
       </c>
       <c r="J8" s="21" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="K8" s="22"/>
       <c r="L8" s="23"/>
       <c r="N8" s="5"/>
       <c r="O8" s="21" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="P8" s="22"/>
       <c r="Q8" s="22"/>
@@ -9132,207 +9132,207 @@
     <row r="11" spans="2:40" x14ac:dyDescent="0.25">
       <c r="B11" s="4"/>
       <c r="C11" s="5"/>
-      <c r="D11" s="53"/>
-      <c r="E11" s="54"/>
-      <c r="F11" s="54"/>
-      <c r="G11" s="55"/>
-      <c r="H11" s="65" t="s">
+      <c r="D11" s="94"/>
+      <c r="E11" s="95"/>
+      <c r="F11" s="95"/>
+      <c r="G11" s="96"/>
+      <c r="H11" s="76" t="s">
         <v>35</v>
       </c>
-      <c r="I11" s="66"/>
-      <c r="J11" s="66"/>
-      <c r="K11" s="66"/>
-      <c r="L11" s="66"/>
-      <c r="M11" s="67"/>
-      <c r="N11" s="59" t="s">
+      <c r="I11" s="77"/>
+      <c r="J11" s="77"/>
+      <c r="K11" s="77"/>
+      <c r="L11" s="77"/>
+      <c r="M11" s="78"/>
+      <c r="N11" s="100" t="s">
         <v>36</v>
       </c>
-      <c r="O11" s="60"/>
-      <c r="P11" s="60"/>
-      <c r="Q11" s="61"/>
-      <c r="R11" s="72" t="s">
+      <c r="O11" s="59"/>
+      <c r="P11" s="59"/>
+      <c r="Q11" s="60"/>
+      <c r="R11" s="64" t="s">
         <v>47</v>
       </c>
-      <c r="S11" s="73"/>
-      <c r="T11" s="74"/>
-      <c r="U11" s="84" t="s">
+      <c r="S11" s="65"/>
+      <c r="T11" s="66"/>
+      <c r="U11" s="82" t="s">
         <v>37</v>
       </c>
-      <c r="V11" s="85"/>
-      <c r="W11" s="85"/>
-      <c r="X11" s="85"/>
-      <c r="Y11" s="85"/>
-      <c r="Z11" s="85"/>
-      <c r="AA11" s="85"/>
-      <c r="AB11" s="85"/>
-      <c r="AC11" s="85"/>
-      <c r="AD11" s="85"/>
-      <c r="AE11" s="85"/>
-      <c r="AF11" s="85"/>
-      <c r="AG11" s="86"/>
-      <c r="AH11" s="90" t="s">
+      <c r="V11" s="83"/>
+      <c r="W11" s="83"/>
+      <c r="X11" s="83"/>
+      <c r="Y11" s="83"/>
+      <c r="Z11" s="83"/>
+      <c r="AA11" s="83"/>
+      <c r="AB11" s="83"/>
+      <c r="AC11" s="83"/>
+      <c r="AD11" s="83"/>
+      <c r="AE11" s="83"/>
+      <c r="AF11" s="83"/>
+      <c r="AG11" s="84"/>
+      <c r="AH11" s="88" t="s">
         <v>43</v>
       </c>
-      <c r="AI11" s="91"/>
-      <c r="AJ11" s="91"/>
-      <c r="AK11" s="91"/>
-      <c r="AL11" s="92"/>
+      <c r="AI11" s="89"/>
+      <c r="AJ11" s="89"/>
+      <c r="AK11" s="89"/>
+      <c r="AL11" s="90"/>
       <c r="AM11" s="5"/>
       <c r="AN11" s="6"/>
     </row>
     <row r="12" spans="2:40" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="4"/>
       <c r="C12" s="5"/>
-      <c r="D12" s="56"/>
-      <c r="E12" s="57"/>
-      <c r="F12" s="57"/>
-      <c r="G12" s="58"/>
-      <c r="H12" s="68"/>
-      <c r="I12" s="69"/>
-      <c r="J12" s="69"/>
-      <c r="K12" s="69"/>
-      <c r="L12" s="69"/>
-      <c r="M12" s="70"/>
-      <c r="N12" s="62"/>
-      <c r="O12" s="63"/>
-      <c r="P12" s="63"/>
-      <c r="Q12" s="64"/>
-      <c r="R12" s="75"/>
-      <c r="S12" s="76"/>
-      <c r="T12" s="77"/>
-      <c r="U12" s="87"/>
-      <c r="V12" s="88"/>
-      <c r="W12" s="88"/>
-      <c r="X12" s="88"/>
-      <c r="Y12" s="88"/>
-      <c r="Z12" s="88"/>
-      <c r="AA12" s="88"/>
-      <c r="AB12" s="88"/>
-      <c r="AC12" s="88"/>
-      <c r="AD12" s="88"/>
-      <c r="AE12" s="88"/>
-      <c r="AF12" s="88"/>
-      <c r="AG12" s="89"/>
-      <c r="AH12" s="93"/>
-      <c r="AI12" s="94"/>
-      <c r="AJ12" s="94"/>
-      <c r="AK12" s="94"/>
-      <c r="AL12" s="95"/>
+      <c r="D12" s="97"/>
+      <c r="E12" s="98"/>
+      <c r="F12" s="98"/>
+      <c r="G12" s="99"/>
+      <c r="H12" s="79"/>
+      <c r="I12" s="80"/>
+      <c r="J12" s="80"/>
+      <c r="K12" s="80"/>
+      <c r="L12" s="80"/>
+      <c r="M12" s="81"/>
+      <c r="N12" s="61"/>
+      <c r="O12" s="62"/>
+      <c r="P12" s="62"/>
+      <c r="Q12" s="63"/>
+      <c r="R12" s="67"/>
+      <c r="S12" s="68"/>
+      <c r="T12" s="69"/>
+      <c r="U12" s="85"/>
+      <c r="V12" s="86"/>
+      <c r="W12" s="86"/>
+      <c r="X12" s="86"/>
+      <c r="Y12" s="86"/>
+      <c r="Z12" s="86"/>
+      <c r="AA12" s="86"/>
+      <c r="AB12" s="86"/>
+      <c r="AC12" s="86"/>
+      <c r="AD12" s="86"/>
+      <c r="AE12" s="86"/>
+      <c r="AF12" s="86"/>
+      <c r="AG12" s="87"/>
+      <c r="AH12" s="91"/>
+      <c r="AI12" s="92"/>
+      <c r="AJ12" s="92"/>
+      <c r="AK12" s="92"/>
+      <c r="AL12" s="93"/>
       <c r="AM12" s="5"/>
       <c r="AN12" s="6"/>
     </row>
     <row r="13" spans="2:40" x14ac:dyDescent="0.25">
       <c r="B13" s="4"/>
       <c r="C13" s="5"/>
-      <c r="D13" s="59"/>
-      <c r="E13" s="60"/>
-      <c r="F13" s="60"/>
-      <c r="G13" s="61"/>
-      <c r="H13" s="65" t="s">
+      <c r="D13" s="100"/>
+      <c r="E13" s="59"/>
+      <c r="F13" s="59"/>
+      <c r="G13" s="60"/>
+      <c r="H13" s="76" t="s">
         <v>38</v>
       </c>
-      <c r="I13" s="66"/>
-      <c r="J13" s="66"/>
-      <c r="K13" s="66"/>
-      <c r="L13" s="66"/>
-      <c r="M13" s="67"/>
-      <c r="N13" s="59" t="s">
+      <c r="I13" s="77"/>
+      <c r="J13" s="77"/>
+      <c r="K13" s="77"/>
+      <c r="L13" s="77"/>
+      <c r="M13" s="78"/>
+      <c r="N13" s="100" t="s">
         <v>39</v>
       </c>
-      <c r="O13" s="60"/>
-      <c r="P13" s="60"/>
-      <c r="Q13" s="61"/>
-      <c r="R13" s="78" t="s">
+      <c r="O13" s="59"/>
+      <c r="P13" s="59"/>
+      <c r="Q13" s="60"/>
+      <c r="R13" s="70" t="s">
         <v>48</v>
       </c>
-      <c r="S13" s="79"/>
-      <c r="T13" s="80"/>
-      <c r="U13" s="84" t="s">
+      <c r="S13" s="71"/>
+      <c r="T13" s="72"/>
+      <c r="U13" s="82" t="s">
         <v>40</v>
       </c>
-      <c r="V13" s="85"/>
-      <c r="W13" s="85"/>
-      <c r="X13" s="85"/>
-      <c r="Y13" s="85"/>
-      <c r="Z13" s="85"/>
-      <c r="AA13" s="85"/>
-      <c r="AB13" s="85"/>
-      <c r="AC13" s="85"/>
-      <c r="AD13" s="85"/>
-      <c r="AE13" s="85"/>
-      <c r="AF13" s="85"/>
-      <c r="AG13" s="86"/>
-      <c r="AH13" s="90" t="s">
+      <c r="V13" s="83"/>
+      <c r="W13" s="83"/>
+      <c r="X13" s="83"/>
+      <c r="Y13" s="83"/>
+      <c r="Z13" s="83"/>
+      <c r="AA13" s="83"/>
+      <c r="AB13" s="83"/>
+      <c r="AC13" s="83"/>
+      <c r="AD13" s="83"/>
+      <c r="AE13" s="83"/>
+      <c r="AF13" s="83"/>
+      <c r="AG13" s="84"/>
+      <c r="AH13" s="88" t="s">
         <v>43</v>
       </c>
-      <c r="AI13" s="91"/>
-      <c r="AJ13" s="91"/>
-      <c r="AK13" s="91"/>
-      <c r="AL13" s="92"/>
+      <c r="AI13" s="89"/>
+      <c r="AJ13" s="89"/>
+      <c r="AK13" s="89"/>
+      <c r="AL13" s="90"/>
       <c r="AM13" s="5"/>
       <c r="AN13" s="6"/>
     </row>
     <row r="14" spans="2:40" ht="65.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="4"/>
       <c r="C14" s="5"/>
-      <c r="D14" s="62"/>
-      <c r="E14" s="63"/>
-      <c r="F14" s="63"/>
-      <c r="G14" s="64"/>
-      <c r="H14" s="68"/>
-      <c r="I14" s="69"/>
-      <c r="J14" s="69"/>
-      <c r="K14" s="69"/>
-      <c r="L14" s="69"/>
-      <c r="M14" s="70"/>
-      <c r="N14" s="62"/>
-      <c r="O14" s="63"/>
-      <c r="P14" s="63"/>
-      <c r="Q14" s="64"/>
-      <c r="R14" s="81"/>
-      <c r="S14" s="82"/>
-      <c r="T14" s="83"/>
-      <c r="U14" s="87"/>
-      <c r="V14" s="88"/>
-      <c r="W14" s="88"/>
-      <c r="X14" s="88"/>
-      <c r="Y14" s="88"/>
-      <c r="Z14" s="88"/>
-      <c r="AA14" s="88"/>
-      <c r="AB14" s="88"/>
-      <c r="AC14" s="88"/>
-      <c r="AD14" s="88"/>
-      <c r="AE14" s="88"/>
-      <c r="AF14" s="88"/>
-      <c r="AG14" s="89"/>
-      <c r="AH14" s="93"/>
-      <c r="AI14" s="94"/>
-      <c r="AJ14" s="94"/>
-      <c r="AK14" s="94"/>
-      <c r="AL14" s="95"/>
+      <c r="D14" s="61"/>
+      <c r="E14" s="62"/>
+      <c r="F14" s="62"/>
+      <c r="G14" s="63"/>
+      <c r="H14" s="79"/>
+      <c r="I14" s="80"/>
+      <c r="J14" s="80"/>
+      <c r="K14" s="80"/>
+      <c r="L14" s="80"/>
+      <c r="M14" s="81"/>
+      <c r="N14" s="61"/>
+      <c r="O14" s="62"/>
+      <c r="P14" s="62"/>
+      <c r="Q14" s="63"/>
+      <c r="R14" s="73"/>
+      <c r="S14" s="74"/>
+      <c r="T14" s="75"/>
+      <c r="U14" s="85"/>
+      <c r="V14" s="86"/>
+      <c r="W14" s="86"/>
+      <c r="X14" s="86"/>
+      <c r="Y14" s="86"/>
+      <c r="Z14" s="86"/>
+      <c r="AA14" s="86"/>
+      <c r="AB14" s="86"/>
+      <c r="AC14" s="86"/>
+      <c r="AD14" s="86"/>
+      <c r="AE14" s="86"/>
+      <c r="AF14" s="86"/>
+      <c r="AG14" s="87"/>
+      <c r="AH14" s="91"/>
+      <c r="AI14" s="92"/>
+      <c r="AJ14" s="92"/>
+      <c r="AK14" s="92"/>
+      <c r="AL14" s="93"/>
       <c r="AM14" s="5"/>
       <c r="AN14" s="6"/>
     </row>
     <row r="15" spans="2:40" x14ac:dyDescent="0.25">
       <c r="B15" s="4"/>
       <c r="C15" s="5"/>
-      <c r="D15" s="59"/>
-      <c r="E15" s="60"/>
-      <c r="F15" s="60"/>
-      <c r="G15" s="61"/>
-      <c r="H15" s="65"/>
-      <c r="I15" s="66"/>
-      <c r="J15" s="66"/>
-      <c r="K15" s="66"/>
-      <c r="L15" s="66"/>
-      <c r="M15" s="67"/>
-      <c r="N15" s="59"/>
-      <c r="O15" s="60"/>
-      <c r="P15" s="60"/>
-      <c r="Q15" s="61"/>
-      <c r="R15" s="65"/>
-      <c r="S15" s="66"/>
-      <c r="T15" s="67"/>
+      <c r="D15" s="100"/>
+      <c r="E15" s="59"/>
+      <c r="F15" s="59"/>
+      <c r="G15" s="60"/>
+      <c r="H15" s="76"/>
+      <c r="I15" s="77"/>
+      <c r="J15" s="77"/>
+      <c r="K15" s="77"/>
+      <c r="L15" s="77"/>
+      <c r="M15" s="78"/>
+      <c r="N15" s="100"/>
+      <c r="O15" s="59"/>
+      <c r="P15" s="59"/>
+      <c r="Q15" s="60"/>
+      <c r="R15" s="76"/>
+      <c r="S15" s="77"/>
+      <c r="T15" s="78"/>
       <c r="U15" s="29"/>
       <c r="V15" s="30"/>
       <c r="W15" s="30"/>
@@ -9346,34 +9346,34 @@
       <c r="AE15" s="30"/>
       <c r="AF15" s="30"/>
       <c r="AG15" s="31"/>
-      <c r="AH15" s="71"/>
-      <c r="AI15" s="60"/>
-      <c r="AJ15" s="60"/>
-      <c r="AK15" s="60"/>
-      <c r="AL15" s="61"/>
+      <c r="AH15" s="58"/>
+      <c r="AI15" s="59"/>
+      <c r="AJ15" s="59"/>
+      <c r="AK15" s="59"/>
+      <c r="AL15" s="60"/>
       <c r="AM15" s="5"/>
       <c r="AN15" s="6"/>
     </row>
     <row r="16" spans="2:40" x14ac:dyDescent="0.25">
       <c r="B16" s="4"/>
       <c r="C16" s="5"/>
-      <c r="D16" s="62"/>
-      <c r="E16" s="63"/>
-      <c r="F16" s="63"/>
-      <c r="G16" s="64"/>
-      <c r="H16" s="68"/>
-      <c r="I16" s="69"/>
-      <c r="J16" s="69"/>
-      <c r="K16" s="69"/>
-      <c r="L16" s="69"/>
-      <c r="M16" s="70"/>
-      <c r="N16" s="62"/>
-      <c r="O16" s="63"/>
-      <c r="P16" s="63"/>
-      <c r="Q16" s="64"/>
-      <c r="R16" s="68"/>
-      <c r="S16" s="69"/>
-      <c r="T16" s="70"/>
+      <c r="D16" s="61"/>
+      <c r="E16" s="62"/>
+      <c r="F16" s="62"/>
+      <c r="G16" s="63"/>
+      <c r="H16" s="79"/>
+      <c r="I16" s="80"/>
+      <c r="J16" s="80"/>
+      <c r="K16" s="80"/>
+      <c r="L16" s="80"/>
+      <c r="M16" s="81"/>
+      <c r="N16" s="61"/>
+      <c r="O16" s="62"/>
+      <c r="P16" s="62"/>
+      <c r="Q16" s="63"/>
+      <c r="R16" s="79"/>
+      <c r="S16" s="80"/>
+      <c r="T16" s="81"/>
       <c r="U16" s="32"/>
       <c r="V16" s="33"/>
       <c r="W16" s="33"/>
@@ -9387,11 +9387,11 @@
       <c r="AE16" s="33"/>
       <c r="AF16" s="33"/>
       <c r="AG16" s="34"/>
-      <c r="AH16" s="62"/>
-      <c r="AI16" s="63"/>
-      <c r="AJ16" s="63"/>
-      <c r="AK16" s="63"/>
-      <c r="AL16" s="64"/>
+      <c r="AH16" s="61"/>
+      <c r="AI16" s="62"/>
+      <c r="AJ16" s="62"/>
+      <c r="AK16" s="62"/>
+      <c r="AL16" s="63"/>
       <c r="AM16" s="5"/>
       <c r="AN16" s="6"/>
     </row>
@@ -9648,14 +9648,6 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="AH15:AL16"/>
-    <mergeCell ref="R11:T12"/>
-    <mergeCell ref="R13:T14"/>
-    <mergeCell ref="R15:T16"/>
-    <mergeCell ref="U11:AG12"/>
-    <mergeCell ref="U13:AG14"/>
-    <mergeCell ref="AH11:AL12"/>
-    <mergeCell ref="AH13:AL14"/>
     <mergeCell ref="D11:G12"/>
     <mergeCell ref="D13:G14"/>
     <mergeCell ref="D15:G16"/>
@@ -9665,6 +9657,14 @@
     <mergeCell ref="N11:Q12"/>
     <mergeCell ref="H11:M12"/>
     <mergeCell ref="H13:M14"/>
+    <mergeCell ref="AH15:AL16"/>
+    <mergeCell ref="R11:T12"/>
+    <mergeCell ref="R13:T14"/>
+    <mergeCell ref="R15:T16"/>
+    <mergeCell ref="U11:AG12"/>
+    <mergeCell ref="U13:AG14"/>
+    <mergeCell ref="AH11:AL12"/>
+    <mergeCell ref="AH13:AL14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -9674,10 +9674,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:AN28"/>
+  <dimension ref="B1:AN26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="AY20" sqref="AY20"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="BB14" sqref="BB14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10196,15 +10196,17 @@
       <c r="B14" s="4"/>
       <c r="C14" s="5"/>
       <c r="D14" s="5"/>
-      <c r="E14" s="5"/>
-      <c r="F14" s="5"/>
-      <c r="G14" s="5"/>
+      <c r="E14" s="21" t="s">
+        <v>73</v>
+      </c>
+      <c r="F14" s="22"/>
+      <c r="G14" s="23"/>
       <c r="H14" s="5"/>
       <c r="I14" s="5"/>
       <c r="J14" s="5"/>
       <c r="K14" s="5"/>
       <c r="L14" s="47" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="M14" s="5"/>
       <c r="N14" s="5"/>
@@ -10216,9 +10218,7 @@
       <c r="T14" s="14"/>
       <c r="U14" s="14"/>
       <c r="V14" s="14"/>
-      <c r="W14" s="13" t="s">
-        <v>62</v>
-      </c>
+      <c r="W14" s="14"/>
       <c r="X14" s="14"/>
       <c r="Y14" s="14"/>
       <c r="Z14" s="15"/>
@@ -10290,7 +10290,7 @@
       <c r="J16" s="5"/>
       <c r="K16" s="5"/>
       <c r="L16" s="47" t="s">
-        <v>32</v>
+        <v>61</v>
       </c>
       <c r="M16" s="5"/>
       <c r="N16" s="5"/>
@@ -10305,7 +10305,9 @@
       <c r="W16" s="14"/>
       <c r="X16" s="14"/>
       <c r="Y16" s="14"/>
-      <c r="Z16" s="15"/>
+      <c r="Z16" s="17" t="s">
+        <v>15</v>
+      </c>
       <c r="AA16" s="5"/>
       <c r="AB16" s="5"/>
       <c r="AC16" s="5"/>
@@ -10362,7 +10364,7 @@
       <c r="AM17" s="5"/>
       <c r="AN17" s="6"/>
     </row>
-    <row r="18" spans="2:40" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:40" x14ac:dyDescent="0.25">
       <c r="B18" s="4"/>
       <c r="C18" s="5"/>
       <c r="D18" s="5"/>
@@ -10374,24 +10376,22 @@
       <c r="J18" s="5"/>
       <c r="K18" s="5"/>
       <c r="L18" s="47" t="s">
-        <v>61</v>
+        <v>30</v>
       </c>
       <c r="M18" s="5"/>
       <c r="N18" s="5"/>
       <c r="O18" s="5"/>
-      <c r="P18" s="13"/>
-      <c r="Q18" s="14"/>
-      <c r="R18" s="14"/>
-      <c r="S18" s="14"/>
-      <c r="T18" s="14"/>
-      <c r="U18" s="14"/>
-      <c r="V18" s="14"/>
-      <c r="W18" s="14"/>
-      <c r="X18" s="14"/>
-      <c r="Y18" s="14"/>
-      <c r="Z18" s="17" t="s">
-        <v>15</v>
-      </c>
+      <c r="P18" s="1"/>
+      <c r="Q18" s="2"/>
+      <c r="R18" s="2"/>
+      <c r="S18" s="2"/>
+      <c r="T18" s="2"/>
+      <c r="U18" s="2"/>
+      <c r="V18" s="2"/>
+      <c r="W18" s="2"/>
+      <c r="X18" s="2"/>
+      <c r="Y18" s="2"/>
+      <c r="Z18" s="3"/>
       <c r="AA18" s="5"/>
       <c r="AB18" s="5"/>
       <c r="AC18" s="5"/>
@@ -10407,7 +10407,7 @@
       <c r="AM18" s="5"/>
       <c r="AN18" s="6"/>
     </row>
-    <row r="19" spans="2:40" ht="6.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:40" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B19" s="4"/>
       <c r="C19" s="5"/>
       <c r="D19" s="5"/>
@@ -10418,21 +10418,21 @@
       <c r="I19" s="5"/>
       <c r="J19" s="5"/>
       <c r="K19" s="5"/>
-      <c r="L19" s="46"/>
+      <c r="L19" s="5"/>
       <c r="M19" s="5"/>
       <c r="N19" s="5"/>
       <c r="O19" s="5"/>
-      <c r="P19" s="5"/>
-      <c r="Q19" s="5"/>
-      <c r="R19" s="5"/>
-      <c r="S19" s="5"/>
-      <c r="T19" s="5"/>
-      <c r="U19" s="5"/>
-      <c r="V19" s="5"/>
-      <c r="W19" s="5"/>
-      <c r="X19" s="5"/>
-      <c r="Y19" s="5"/>
-      <c r="Z19" s="5"/>
+      <c r="P19" s="7"/>
+      <c r="Q19" s="8"/>
+      <c r="R19" s="8"/>
+      <c r="S19" s="8"/>
+      <c r="T19" s="8"/>
+      <c r="U19" s="8"/>
+      <c r="V19" s="8"/>
+      <c r="W19" s="8"/>
+      <c r="X19" s="8"/>
+      <c r="Y19" s="8"/>
+      <c r="Z19" s="9"/>
       <c r="AA19" s="5"/>
       <c r="AB19" s="5"/>
       <c r="AC19" s="5"/>
@@ -10448,7 +10448,7 @@
       <c r="AM19" s="5"/>
       <c r="AN19" s="6"/>
     </row>
-    <row r="20" spans="2:40" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:40" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B20" s="4"/>
       <c r="C20" s="5"/>
       <c r="D20" s="5"/>
@@ -10459,23 +10459,16 @@
       <c r="I20" s="5"/>
       <c r="J20" s="5"/>
       <c r="K20" s="5"/>
-      <c r="L20" s="47" t="s">
-        <v>30</v>
-      </c>
+      <c r="L20" s="5"/>
       <c r="M20" s="5"/>
       <c r="N20" s="5"/>
       <c r="O20" s="5"/>
-      <c r="P20" s="1"/>
-      <c r="Q20" s="2"/>
-      <c r="R20" s="2"/>
-      <c r="S20" s="2"/>
-      <c r="T20" s="2"/>
-      <c r="U20" s="2"/>
-      <c r="V20" s="2"/>
-      <c r="W20" s="2"/>
-      <c r="X20" s="2"/>
-      <c r="Y20" s="2"/>
-      <c r="Z20" s="3"/>
+      <c r="P20" s="5"/>
+      <c r="Q20" s="5"/>
+      <c r="R20" s="5"/>
+      <c r="S20" s="5"/>
+      <c r="T20" s="5"/>
+      <c r="U20" s="5"/>
       <c r="AA20" s="5"/>
       <c r="AB20" s="5"/>
       <c r="AC20" s="5"/>
@@ -10506,17 +10499,19 @@
       <c r="M21" s="5"/>
       <c r="N21" s="5"/>
       <c r="O21" s="5"/>
-      <c r="P21" s="7"/>
-      <c r="Q21" s="8"/>
-      <c r="R21" s="8"/>
-      <c r="S21" s="8"/>
-      <c r="T21" s="8"/>
-      <c r="U21" s="8"/>
-      <c r="V21" s="8"/>
-      <c r="W21" s="8"/>
-      <c r="X21" s="8"/>
-      <c r="Y21" s="8"/>
-      <c r="Z21" s="9"/>
+      <c r="P21" s="5"/>
+      <c r="Q21" s="5"/>
+      <c r="R21" s="5"/>
+      <c r="S21" s="5"/>
+      <c r="T21" s="5"/>
+      <c r="U21" s="5"/>
+      <c r="V21" s="13"/>
+      <c r="W21" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="X21" s="14"/>
+      <c r="Y21" s="14"/>
+      <c r="Z21" s="15"/>
       <c r="AA21" s="5"/>
       <c r="AB21" s="5"/>
       <c r="AC21" s="5"/>
@@ -10532,10 +10527,12 @@
       <c r="AM21" s="5"/>
       <c r="AN21" s="6"/>
     </row>
-    <row r="22" spans="2:40" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:40" x14ac:dyDescent="0.25">
       <c r="B22" s="4"/>
       <c r="C22" s="5"/>
-      <c r="D22" s="5"/>
+      <c r="D22" s="16" t="s">
+        <v>21</v>
+      </c>
       <c r="E22" s="5"/>
       <c r="F22" s="5"/>
       <c r="G22" s="5"/>
@@ -10553,6 +10550,11 @@
       <c r="S22" s="5"/>
       <c r="T22" s="5"/>
       <c r="U22" s="5"/>
+      <c r="V22" s="5"/>
+      <c r="W22" s="5"/>
+      <c r="X22" s="5"/>
+      <c r="Y22" s="5"/>
+      <c r="Z22" s="5"/>
       <c r="AA22" s="5"/>
       <c r="AB22" s="5"/>
       <c r="AC22" s="5"/>
@@ -10589,13 +10591,11 @@
       <c r="S23" s="5"/>
       <c r="T23" s="5"/>
       <c r="U23" s="5"/>
-      <c r="V23" s="13"/>
-      <c r="W23" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="X23" s="14"/>
-      <c r="Y23" s="14"/>
-      <c r="Z23" s="15"/>
+      <c r="V23" s="5"/>
+      <c r="W23" s="5"/>
+      <c r="X23" s="5"/>
+      <c r="Y23" s="5"/>
+      <c r="Z23" s="5"/>
       <c r="AA23" s="5"/>
       <c r="AB23" s="5"/>
       <c r="AC23" s="5"/>
@@ -10612,56 +10612,56 @@
       <c r="AN23" s="6"/>
     </row>
     <row r="24" spans="2:40" x14ac:dyDescent="0.25">
-      <c r="B24" s="4"/>
-      <c r="C24" s="5"/>
-      <c r="D24" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="E24" s="5"/>
-      <c r="F24" s="5"/>
-      <c r="G24" s="5"/>
-      <c r="H24" s="5"/>
-      <c r="I24" s="5"/>
-      <c r="J24" s="5"/>
-      <c r="K24" s="5"/>
-      <c r="L24" s="5"/>
-      <c r="M24" s="5"/>
-      <c r="N24" s="5"/>
-      <c r="O24" s="5"/>
-      <c r="P24" s="5"/>
-      <c r="Q24" s="5"/>
-      <c r="R24" s="5"/>
-      <c r="S24" s="5"/>
-      <c r="T24" s="5"/>
-      <c r="U24" s="5"/>
-      <c r="V24" s="5"/>
-      <c r="W24" s="5"/>
-      <c r="X24" s="5"/>
-      <c r="Y24" s="5"/>
-      <c r="Z24" s="5"/>
-      <c r="AA24" s="5"/>
-      <c r="AB24" s="5"/>
-      <c r="AC24" s="5"/>
-      <c r="AD24" s="5"/>
-      <c r="AE24" s="5"/>
-      <c r="AF24" s="5"/>
-      <c r="AG24" s="5"/>
-      <c r="AH24" s="5"/>
-      <c r="AI24" s="5"/>
-      <c r="AJ24" s="5"/>
-      <c r="AK24" s="5"/>
-      <c r="AL24" s="5"/>
-      <c r="AM24" s="5"/>
-      <c r="AN24" s="6"/>
-    </row>
-    <row r="25" spans="2:40" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B24" s="1"/>
+      <c r="C24" s="2"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="2"/>
+      <c r="G24" s="2"/>
+      <c r="H24" s="2"/>
+      <c r="I24" s="2"/>
+      <c r="J24" s="2"/>
+      <c r="K24" s="2"/>
+      <c r="L24" s="2"/>
+      <c r="M24" s="2"/>
+      <c r="N24" s="2"/>
+      <c r="O24" s="2"/>
+      <c r="P24" s="2"/>
+      <c r="Q24" s="2"/>
+      <c r="R24" s="2"/>
+      <c r="S24" s="2"/>
+      <c r="T24" s="2"/>
+      <c r="U24" s="2"/>
+      <c r="V24" s="2"/>
+      <c r="W24" s="2"/>
+      <c r="X24" s="2"/>
+      <c r="Y24" s="2"/>
+      <c r="Z24" s="2"/>
+      <c r="AA24" s="2"/>
+      <c r="AB24" s="2"/>
+      <c r="AC24" s="2"/>
+      <c r="AD24" s="2"/>
+      <c r="AE24" s="2"/>
+      <c r="AF24" s="2"/>
+      <c r="AG24" s="2"/>
+      <c r="AH24" s="2"/>
+      <c r="AI24" s="2"/>
+      <c r="AJ24" s="2"/>
+      <c r="AK24" s="2"/>
+      <c r="AL24" s="2"/>
+      <c r="AM24" s="2"/>
+      <c r="AN24" s="3"/>
+    </row>
+    <row r="25" spans="2:40" x14ac:dyDescent="0.25">
       <c r="B25" s="4"/>
       <c r="C25" s="5"/>
-      <c r="D25" s="5"/>
+      <c r="D25" s="5" t="s">
+        <v>4</v>
+      </c>
       <c r="E25" s="5"/>
       <c r="F25" s="5"/>
       <c r="G25" s="5"/>
-      <c r="H25" s="5"/>
+      <c r="H25" s="11"/>
       <c r="I25" s="5"/>
       <c r="J25" s="5"/>
       <c r="K25" s="5"/>
@@ -10685,7 +10685,9 @@
       <c r="AC25" s="5"/>
       <c r="AD25" s="5"/>
       <c r="AE25" s="5"/>
-      <c r="AF25" s="5"/>
+      <c r="AF25" s="5" t="s">
+        <v>5</v>
+      </c>
       <c r="AG25" s="5"/>
       <c r="AH25" s="5"/>
       <c r="AI25" s="5"/>
@@ -10695,132 +10697,46 @@
       <c r="AM25" s="5"/>
       <c r="AN25" s="6"/>
     </row>
-    <row r="26" spans="2:40" x14ac:dyDescent="0.25">
-      <c r="B26" s="1"/>
-      <c r="C26" s="2"/>
-      <c r="D26" s="2"/>
-      <c r="E26" s="2"/>
-      <c r="F26" s="2"/>
-      <c r="G26" s="2"/>
-      <c r="H26" s="2"/>
-      <c r="I26" s="2"/>
-      <c r="J26" s="2"/>
-      <c r="K26" s="2"/>
-      <c r="L26" s="2"/>
-      <c r="M26" s="2"/>
-      <c r="N26" s="2"/>
-      <c r="O26" s="2"/>
-      <c r="P26" s="2"/>
-      <c r="Q26" s="2"/>
-      <c r="R26" s="2"/>
-      <c r="S26" s="2"/>
-      <c r="T26" s="2"/>
-      <c r="U26" s="2"/>
-      <c r="V26" s="2"/>
-      <c r="W26" s="2"/>
-      <c r="X26" s="2"/>
-      <c r="Y26" s="2"/>
-      <c r="Z26" s="2"/>
-      <c r="AA26" s="2"/>
-      <c r="AB26" s="2"/>
-      <c r="AC26" s="2"/>
-      <c r="AD26" s="2"/>
-      <c r="AE26" s="2"/>
-      <c r="AF26" s="2"/>
-      <c r="AG26" s="2"/>
-      <c r="AH26" s="2"/>
-      <c r="AI26" s="2"/>
-      <c r="AJ26" s="2"/>
-      <c r="AK26" s="2"/>
-      <c r="AL26" s="2"/>
-      <c r="AM26" s="2"/>
-      <c r="AN26" s="3"/>
-    </row>
-    <row r="27" spans="2:40" x14ac:dyDescent="0.25">
-      <c r="B27" s="4"/>
-      <c r="C27" s="5"/>
-      <c r="D27" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="E27" s="5"/>
-      <c r="F27" s="5"/>
-      <c r="G27" s="5"/>
-      <c r="H27" s="11"/>
-      <c r="I27" s="5"/>
-      <c r="J27" s="5"/>
-      <c r="K27" s="5"/>
-      <c r="L27" s="5"/>
-      <c r="M27" s="5"/>
-      <c r="N27" s="5"/>
-      <c r="O27" s="5"/>
-      <c r="P27" s="5"/>
-      <c r="Q27" s="5"/>
-      <c r="R27" s="5"/>
-      <c r="S27" s="5"/>
-      <c r="T27" s="5"/>
-      <c r="U27" s="5"/>
-      <c r="V27" s="5"/>
-      <c r="W27" s="5"/>
-      <c r="X27" s="5"/>
-      <c r="Y27" s="5"/>
-      <c r="Z27" s="5"/>
-      <c r="AA27" s="5"/>
-      <c r="AB27" s="5"/>
-      <c r="AC27" s="5"/>
-      <c r="AD27" s="5"/>
-      <c r="AE27" s="5"/>
-      <c r="AF27" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="AG27" s="5"/>
-      <c r="AH27" s="5"/>
-      <c r="AI27" s="5"/>
-      <c r="AJ27" s="5"/>
-      <c r="AK27" s="5"/>
-      <c r="AL27" s="5"/>
-      <c r="AM27" s="5"/>
-      <c r="AN27" s="6"/>
-    </row>
-    <row r="28" spans="2:40" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="7"/>
-      <c r="C28" s="8"/>
-      <c r="D28" s="8"/>
-      <c r="E28" s="8"/>
-      <c r="F28" s="8"/>
-      <c r="G28" s="8"/>
-      <c r="H28" s="8"/>
-      <c r="I28" s="8"/>
-      <c r="J28" s="8"/>
-      <c r="K28" s="8"/>
-      <c r="L28" s="8"/>
-      <c r="M28" s="8"/>
-      <c r="N28" s="8"/>
-      <c r="O28" s="8"/>
-      <c r="P28" s="8"/>
-      <c r="Q28" s="8"/>
-      <c r="R28" s="8"/>
-      <c r="S28" s="8"/>
-      <c r="T28" s="8"/>
-      <c r="U28" s="8"/>
-      <c r="V28" s="8"/>
-      <c r="W28" s="8"/>
-      <c r="X28" s="8"/>
-      <c r="Y28" s="8"/>
-      <c r="Z28" s="8"/>
-      <c r="AA28" s="8"/>
-      <c r="AB28" s="8"/>
-      <c r="AC28" s="8"/>
-      <c r="AD28" s="8"/>
-      <c r="AE28" s="8"/>
-      <c r="AF28" s="8"/>
-      <c r="AG28" s="8"/>
-      <c r="AH28" s="8"/>
-      <c r="AI28" s="8"/>
-      <c r="AJ28" s="8"/>
-      <c r="AK28" s="8"/>
-      <c r="AL28" s="8"/>
-      <c r="AM28" s="8"/>
-      <c r="AN28" s="9"/>
+    <row r="26" spans="2:40" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B26" s="7"/>
+      <c r="C26" s="8"/>
+      <c r="D26" s="8"/>
+      <c r="E26" s="8"/>
+      <c r="F26" s="8"/>
+      <c r="G26" s="8"/>
+      <c r="H26" s="8"/>
+      <c r="I26" s="8"/>
+      <c r="J26" s="8"/>
+      <c r="K26" s="8"/>
+      <c r="L26" s="8"/>
+      <c r="M26" s="8"/>
+      <c r="N26" s="8"/>
+      <c r="O26" s="8"/>
+      <c r="P26" s="8"/>
+      <c r="Q26" s="8"/>
+      <c r="R26" s="8"/>
+      <c r="S26" s="8"/>
+      <c r="T26" s="8"/>
+      <c r="U26" s="8"/>
+      <c r="V26" s="8"/>
+      <c r="W26" s="8"/>
+      <c r="X26" s="8"/>
+      <c r="Y26" s="8"/>
+      <c r="Z26" s="8"/>
+      <c r="AA26" s="8"/>
+      <c r="AB26" s="8"/>
+      <c r="AC26" s="8"/>
+      <c r="AD26" s="8"/>
+      <c r="AE26" s="8"/>
+      <c r="AF26" s="8"/>
+      <c r="AG26" s="8"/>
+      <c r="AH26" s="8"/>
+      <c r="AI26" s="8"/>
+      <c r="AJ26" s="8"/>
+      <c r="AK26" s="8"/>
+      <c r="AL26" s="8"/>
+      <c r="AM26" s="8"/>
+      <c r="AN26" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -10909,7 +10825,7 @@
       <c r="V3" s="15"/>
       <c r="W3" s="5"/>
       <c r="X3" s="13" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="Y3" s="14"/>
       <c r="Z3" s="15"/>
@@ -11102,21 +11018,21 @@
     <row r="8" spans="2:40" x14ac:dyDescent="0.25">
       <c r="B8" s="4"/>
       <c r="C8" s="5"/>
-      <c r="D8" s="96" t="s">
+      <c r="D8" s="101" t="s">
         <v>41</v>
       </c>
-      <c r="E8" s="97"/>
-      <c r="F8" s="97"/>
-      <c r="G8" s="97"/>
-      <c r="H8" s="97"/>
-      <c r="I8" s="97"/>
-      <c r="J8" s="97"/>
-      <c r="K8" s="97"/>
-      <c r="L8" s="97"/>
-      <c r="M8" s="97"/>
-      <c r="N8" s="97"/>
-      <c r="O8" s="97"/>
-      <c r="P8" s="98"/>
+      <c r="E8" s="102"/>
+      <c r="F8" s="102"/>
+      <c r="G8" s="102"/>
+      <c r="H8" s="102"/>
+      <c r="I8" s="102"/>
+      <c r="J8" s="102"/>
+      <c r="K8" s="102"/>
+      <c r="L8" s="102"/>
+      <c r="M8" s="102"/>
+      <c r="N8" s="102"/>
+      <c r="O8" s="102"/>
+      <c r="P8" s="103"/>
       <c r="R8" s="5"/>
       <c r="S8" s="27" t="s">
         <v>45</v>
@@ -11130,7 +11046,7 @@
       <c r="X8" s="5"/>
       <c r="Y8" s="5"/>
       <c r="Z8" s="21" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="AA8" s="22"/>
       <c r="AB8" s="23"/>
@@ -11151,9 +11067,9 @@
       <c r="B9" s="4"/>
       <c r="C9" s="5"/>
       <c r="D9" s="5"/>
-      <c r="E9" s="125"/>
-      <c r="F9" s="125"/>
-      <c r="G9" s="125"/>
+      <c r="E9" s="55"/>
+      <c r="F9" s="55"/>
+      <c r="G9" s="55"/>
       <c r="H9" s="48"/>
       <c r="I9" s="48"/>
       <c r="J9" s="48"/>
@@ -11164,11 +11080,11 @@
       <c r="O9" s="48"/>
       <c r="P9" s="48"/>
       <c r="R9" s="5"/>
-      <c r="S9" s="126"/>
+      <c r="S9" s="56"/>
       <c r="T9" s="22"/>
       <c r="U9" s="22"/>
       <c r="V9" s="22"/>
-      <c r="W9" s="127"/>
+      <c r="W9" s="57"/>
       <c r="X9" s="5"/>
       <c r="Y9" s="5"/>
       <c r="Z9" s="5"/>
@@ -11241,262 +11157,262 @@
     <row r="11" spans="2:40" x14ac:dyDescent="0.25">
       <c r="B11" s="4"/>
       <c r="C11" s="5"/>
-      <c r="D11" s="53"/>
-      <c r="E11" s="54"/>
-      <c r="F11" s="54"/>
-      <c r="G11" s="55"/>
-      <c r="H11" s="65" t="s">
+      <c r="D11" s="94"/>
+      <c r="E11" s="95"/>
+      <c r="F11" s="95"/>
+      <c r="G11" s="96"/>
+      <c r="H11" s="76" t="s">
         <v>35</v>
       </c>
-      <c r="I11" s="66"/>
-      <c r="J11" s="66"/>
-      <c r="K11" s="66"/>
-      <c r="L11" s="66"/>
-      <c r="M11" s="67"/>
-      <c r="N11" s="59" t="s">
+      <c r="I11" s="77"/>
+      <c r="J11" s="77"/>
+      <c r="K11" s="77"/>
+      <c r="L11" s="77"/>
+      <c r="M11" s="78"/>
+      <c r="N11" s="100" t="s">
         <v>36</v>
       </c>
-      <c r="O11" s="60"/>
-      <c r="P11" s="60"/>
-      <c r="Q11" s="61"/>
-      <c r="R11" s="65" t="s">
+      <c r="O11" s="59"/>
+      <c r="P11" s="59"/>
+      <c r="Q11" s="60"/>
+      <c r="R11" s="76" t="s">
         <v>37</v>
       </c>
-      <c r="S11" s="66"/>
-      <c r="T11" s="66"/>
-      <c r="U11" s="66"/>
-      <c r="V11" s="66"/>
-      <c r="W11" s="66"/>
-      <c r="X11" s="66"/>
-      <c r="Y11" s="66"/>
-      <c r="Z11" s="66"/>
-      <c r="AA11" s="66"/>
-      <c r="AB11" s="66"/>
-      <c r="AC11" s="66"/>
-      <c r="AD11" s="66"/>
-      <c r="AE11" s="66"/>
-      <c r="AF11" s="66"/>
-      <c r="AG11" s="67"/>
-      <c r="AH11" s="71" t="s">
+      <c r="S11" s="77"/>
+      <c r="T11" s="77"/>
+      <c r="U11" s="77"/>
+      <c r="V11" s="77"/>
+      <c r="W11" s="77"/>
+      <c r="X11" s="77"/>
+      <c r="Y11" s="77"/>
+      <c r="Z11" s="77"/>
+      <c r="AA11" s="77"/>
+      <c r="AB11" s="77"/>
+      <c r="AC11" s="77"/>
+      <c r="AD11" s="77"/>
+      <c r="AE11" s="77"/>
+      <c r="AF11" s="77"/>
+      <c r="AG11" s="78"/>
+      <c r="AH11" s="58" t="s">
         <v>33</v>
       </c>
-      <c r="AI11" s="60"/>
-      <c r="AJ11" s="60"/>
-      <c r="AK11" s="60"/>
-      <c r="AL11" s="61"/>
+      <c r="AI11" s="59"/>
+      <c r="AJ11" s="59"/>
+      <c r="AK11" s="59"/>
+      <c r="AL11" s="60"/>
       <c r="AM11" s="5"/>
       <c r="AN11" s="6"/>
     </row>
     <row r="12" spans="2:40" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="4"/>
       <c r="C12" s="5"/>
-      <c r="D12" s="56"/>
-      <c r="E12" s="57"/>
-      <c r="F12" s="57"/>
-      <c r="G12" s="58"/>
-      <c r="H12" s="68"/>
-      <c r="I12" s="69"/>
-      <c r="J12" s="69"/>
-      <c r="K12" s="69"/>
-      <c r="L12" s="69"/>
-      <c r="M12" s="70"/>
-      <c r="N12" s="62"/>
-      <c r="O12" s="63"/>
-      <c r="P12" s="63"/>
-      <c r="Q12" s="64"/>
-      <c r="R12" s="68"/>
-      <c r="S12" s="69"/>
-      <c r="T12" s="69"/>
-      <c r="U12" s="69"/>
-      <c r="V12" s="69"/>
-      <c r="W12" s="69"/>
-      <c r="X12" s="69"/>
-      <c r="Y12" s="69"/>
-      <c r="Z12" s="69"/>
-      <c r="AA12" s="69"/>
-      <c r="AB12" s="69"/>
-      <c r="AC12" s="69"/>
-      <c r="AD12" s="69"/>
-      <c r="AE12" s="69"/>
-      <c r="AF12" s="69"/>
-      <c r="AG12" s="70"/>
-      <c r="AH12" s="62"/>
-      <c r="AI12" s="63"/>
-      <c r="AJ12" s="63"/>
-      <c r="AK12" s="63"/>
-      <c r="AL12" s="64"/>
+      <c r="D12" s="97"/>
+      <c r="E12" s="98"/>
+      <c r="F12" s="98"/>
+      <c r="G12" s="99"/>
+      <c r="H12" s="79"/>
+      <c r="I12" s="80"/>
+      <c r="J12" s="80"/>
+      <c r="K12" s="80"/>
+      <c r="L12" s="80"/>
+      <c r="M12" s="81"/>
+      <c r="N12" s="61"/>
+      <c r="O12" s="62"/>
+      <c r="P12" s="62"/>
+      <c r="Q12" s="63"/>
+      <c r="R12" s="79"/>
+      <c r="S12" s="80"/>
+      <c r="T12" s="80"/>
+      <c r="U12" s="80"/>
+      <c r="V12" s="80"/>
+      <c r="W12" s="80"/>
+      <c r="X12" s="80"/>
+      <c r="Y12" s="80"/>
+      <c r="Z12" s="80"/>
+      <c r="AA12" s="80"/>
+      <c r="AB12" s="80"/>
+      <c r="AC12" s="80"/>
+      <c r="AD12" s="80"/>
+      <c r="AE12" s="80"/>
+      <c r="AF12" s="80"/>
+      <c r="AG12" s="81"/>
+      <c r="AH12" s="61"/>
+      <c r="AI12" s="62"/>
+      <c r="AJ12" s="62"/>
+      <c r="AK12" s="62"/>
+      <c r="AL12" s="63"/>
       <c r="AM12" s="5"/>
       <c r="AN12" s="6"/>
     </row>
     <row r="13" spans="2:40" x14ac:dyDescent="0.25">
       <c r="B13" s="4"/>
       <c r="C13" s="5"/>
-      <c r="D13" s="59"/>
-      <c r="E13" s="60"/>
-      <c r="F13" s="60"/>
-      <c r="G13" s="61"/>
-      <c r="H13" s="65" t="s">
+      <c r="D13" s="100"/>
+      <c r="E13" s="59"/>
+      <c r="F13" s="59"/>
+      <c r="G13" s="60"/>
+      <c r="H13" s="76" t="s">
         <v>38</v>
       </c>
-      <c r="I13" s="66"/>
-      <c r="J13" s="66"/>
-      <c r="K13" s="66"/>
-      <c r="L13" s="66"/>
-      <c r="M13" s="67"/>
-      <c r="N13" s="59" t="s">
+      <c r="I13" s="77"/>
+      <c r="J13" s="77"/>
+      <c r="K13" s="77"/>
+      <c r="L13" s="77"/>
+      <c r="M13" s="78"/>
+      <c r="N13" s="100" t="s">
         <v>39</v>
       </c>
-      <c r="O13" s="60"/>
-      <c r="P13" s="60"/>
-      <c r="Q13" s="61"/>
-      <c r="R13" s="65" t="s">
+      <c r="O13" s="59"/>
+      <c r="P13" s="59"/>
+      <c r="Q13" s="60"/>
+      <c r="R13" s="76" t="s">
         <v>40</v>
       </c>
-      <c r="S13" s="66"/>
-      <c r="T13" s="66"/>
-      <c r="U13" s="66"/>
-      <c r="V13" s="66"/>
-      <c r="W13" s="66"/>
-      <c r="X13" s="66"/>
-      <c r="Y13" s="66"/>
-      <c r="Z13" s="66"/>
-      <c r="AA13" s="66"/>
-      <c r="AB13" s="66"/>
-      <c r="AC13" s="66"/>
-      <c r="AD13" s="66"/>
-      <c r="AE13" s="66"/>
-      <c r="AF13" s="66"/>
-      <c r="AG13" s="67"/>
-      <c r="AH13" s="71" t="s">
+      <c r="S13" s="77"/>
+      <c r="T13" s="77"/>
+      <c r="U13" s="77"/>
+      <c r="V13" s="77"/>
+      <c r="W13" s="77"/>
+      <c r="X13" s="77"/>
+      <c r="Y13" s="77"/>
+      <c r="Z13" s="77"/>
+      <c r="AA13" s="77"/>
+      <c r="AB13" s="77"/>
+      <c r="AC13" s="77"/>
+      <c r="AD13" s="77"/>
+      <c r="AE13" s="77"/>
+      <c r="AF13" s="77"/>
+      <c r="AG13" s="78"/>
+      <c r="AH13" s="58" t="s">
         <v>33</v>
       </c>
-      <c r="AI13" s="60"/>
-      <c r="AJ13" s="60"/>
-      <c r="AK13" s="60"/>
-      <c r="AL13" s="61"/>
+      <c r="AI13" s="59"/>
+      <c r="AJ13" s="59"/>
+      <c r="AK13" s="59"/>
+      <c r="AL13" s="60"/>
       <c r="AM13" s="5"/>
       <c r="AN13" s="6"/>
     </row>
     <row r="14" spans="2:40" ht="65.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="4"/>
       <c r="C14" s="5"/>
-      <c r="D14" s="62"/>
-      <c r="E14" s="63"/>
-      <c r="F14" s="63"/>
-      <c r="G14" s="64"/>
-      <c r="H14" s="68"/>
-      <c r="I14" s="69"/>
-      <c r="J14" s="69"/>
-      <c r="K14" s="69"/>
-      <c r="L14" s="69"/>
-      <c r="M14" s="70"/>
-      <c r="N14" s="62"/>
-      <c r="O14" s="63"/>
-      <c r="P14" s="63"/>
-      <c r="Q14" s="64"/>
-      <c r="R14" s="68"/>
-      <c r="S14" s="69"/>
-      <c r="T14" s="69"/>
-      <c r="U14" s="69"/>
-      <c r="V14" s="69"/>
-      <c r="W14" s="69"/>
-      <c r="X14" s="69"/>
-      <c r="Y14" s="69"/>
-      <c r="Z14" s="69"/>
-      <c r="AA14" s="69"/>
-      <c r="AB14" s="69"/>
-      <c r="AC14" s="69"/>
-      <c r="AD14" s="69"/>
-      <c r="AE14" s="69"/>
-      <c r="AF14" s="69"/>
-      <c r="AG14" s="70"/>
-      <c r="AH14" s="62"/>
-      <c r="AI14" s="63"/>
-      <c r="AJ14" s="63"/>
-      <c r="AK14" s="63"/>
-      <c r="AL14" s="64"/>
+      <c r="D14" s="61"/>
+      <c r="E14" s="62"/>
+      <c r="F14" s="62"/>
+      <c r="G14" s="63"/>
+      <c r="H14" s="79"/>
+      <c r="I14" s="80"/>
+      <c r="J14" s="80"/>
+      <c r="K14" s="80"/>
+      <c r="L14" s="80"/>
+      <c r="M14" s="81"/>
+      <c r="N14" s="61"/>
+      <c r="O14" s="62"/>
+      <c r="P14" s="62"/>
+      <c r="Q14" s="63"/>
+      <c r="R14" s="79"/>
+      <c r="S14" s="80"/>
+      <c r="T14" s="80"/>
+      <c r="U14" s="80"/>
+      <c r="V14" s="80"/>
+      <c r="W14" s="80"/>
+      <c r="X14" s="80"/>
+      <c r="Y14" s="80"/>
+      <c r="Z14" s="80"/>
+      <c r="AA14" s="80"/>
+      <c r="AB14" s="80"/>
+      <c r="AC14" s="80"/>
+      <c r="AD14" s="80"/>
+      <c r="AE14" s="80"/>
+      <c r="AF14" s="80"/>
+      <c r="AG14" s="81"/>
+      <c r="AH14" s="61"/>
+      <c r="AI14" s="62"/>
+      <c r="AJ14" s="62"/>
+      <c r="AK14" s="62"/>
+      <c r="AL14" s="63"/>
       <c r="AM14" s="5"/>
       <c r="AN14" s="6"/>
     </row>
     <row r="15" spans="2:40" x14ac:dyDescent="0.25">
       <c r="B15" s="4"/>
       <c r="C15" s="5"/>
-      <c r="D15" s="59"/>
-      <c r="E15" s="60"/>
-      <c r="F15" s="60"/>
-      <c r="G15" s="61"/>
-      <c r="H15" s="65"/>
-      <c r="I15" s="66"/>
-      <c r="J15" s="66"/>
-      <c r="K15" s="66"/>
-      <c r="L15" s="66"/>
-      <c r="M15" s="67"/>
-      <c r="N15" s="59"/>
-      <c r="O15" s="60"/>
-      <c r="P15" s="60"/>
-      <c r="Q15" s="61"/>
-      <c r="R15" s="65"/>
-      <c r="S15" s="66"/>
-      <c r="T15" s="66"/>
-      <c r="U15" s="66"/>
-      <c r="V15" s="66"/>
-      <c r="W15" s="66"/>
-      <c r="X15" s="66"/>
-      <c r="Y15" s="66"/>
-      <c r="Z15" s="66"/>
-      <c r="AA15" s="66"/>
-      <c r="AB15" s="66"/>
-      <c r="AC15" s="66"/>
-      <c r="AD15" s="66"/>
-      <c r="AE15" s="66"/>
-      <c r="AF15" s="66"/>
-      <c r="AG15" s="67"/>
-      <c r="AH15" s="71"/>
-      <c r="AI15" s="60"/>
-      <c r="AJ15" s="60"/>
-      <c r="AK15" s="60"/>
-      <c r="AL15" s="61"/>
+      <c r="D15" s="100"/>
+      <c r="E15" s="59"/>
+      <c r="F15" s="59"/>
+      <c r="G15" s="60"/>
+      <c r="H15" s="76"/>
+      <c r="I15" s="77"/>
+      <c r="J15" s="77"/>
+      <c r="K15" s="77"/>
+      <c r="L15" s="77"/>
+      <c r="M15" s="78"/>
+      <c r="N15" s="100"/>
+      <c r="O15" s="59"/>
+      <c r="P15" s="59"/>
+      <c r="Q15" s="60"/>
+      <c r="R15" s="76"/>
+      <c r="S15" s="77"/>
+      <c r="T15" s="77"/>
+      <c r="U15" s="77"/>
+      <c r="V15" s="77"/>
+      <c r="W15" s="77"/>
+      <c r="X15" s="77"/>
+      <c r="Y15" s="77"/>
+      <c r="Z15" s="77"/>
+      <c r="AA15" s="77"/>
+      <c r="AB15" s="77"/>
+      <c r="AC15" s="77"/>
+      <c r="AD15" s="77"/>
+      <c r="AE15" s="77"/>
+      <c r="AF15" s="77"/>
+      <c r="AG15" s="78"/>
+      <c r="AH15" s="58"/>
+      <c r="AI15" s="59"/>
+      <c r="AJ15" s="59"/>
+      <c r="AK15" s="59"/>
+      <c r="AL15" s="60"/>
       <c r="AM15" s="5"/>
       <c r="AN15" s="6"/>
     </row>
     <row r="16" spans="2:40" x14ac:dyDescent="0.25">
       <c r="B16" s="4"/>
       <c r="C16" s="5"/>
-      <c r="D16" s="62"/>
-      <c r="E16" s="63"/>
-      <c r="F16" s="63"/>
-      <c r="G16" s="64"/>
-      <c r="H16" s="68"/>
-      <c r="I16" s="69"/>
-      <c r="J16" s="69"/>
-      <c r="K16" s="69"/>
-      <c r="L16" s="69"/>
-      <c r="M16" s="70"/>
-      <c r="N16" s="62"/>
-      <c r="O16" s="63"/>
-      <c r="P16" s="63"/>
-      <c r="Q16" s="64"/>
-      <c r="R16" s="68"/>
-      <c r="S16" s="69"/>
-      <c r="T16" s="69"/>
-      <c r="U16" s="69"/>
-      <c r="V16" s="69"/>
-      <c r="W16" s="69"/>
-      <c r="X16" s="69"/>
-      <c r="Y16" s="69"/>
-      <c r="Z16" s="69"/>
-      <c r="AA16" s="69"/>
-      <c r="AB16" s="69"/>
-      <c r="AC16" s="69"/>
-      <c r="AD16" s="69"/>
-      <c r="AE16" s="69"/>
-      <c r="AF16" s="69"/>
-      <c r="AG16" s="70"/>
-      <c r="AH16" s="62"/>
-      <c r="AI16" s="63"/>
-      <c r="AJ16" s="63"/>
-      <c r="AK16" s="63"/>
-      <c r="AL16" s="64"/>
+      <c r="D16" s="61"/>
+      <c r="E16" s="62"/>
+      <c r="F16" s="62"/>
+      <c r="G16" s="63"/>
+      <c r="H16" s="79"/>
+      <c r="I16" s="80"/>
+      <c r="J16" s="80"/>
+      <c r="K16" s="80"/>
+      <c r="L16" s="80"/>
+      <c r="M16" s="81"/>
+      <c r="N16" s="61"/>
+      <c r="O16" s="62"/>
+      <c r="P16" s="62"/>
+      <c r="Q16" s="63"/>
+      <c r="R16" s="79"/>
+      <c r="S16" s="80"/>
+      <c r="T16" s="80"/>
+      <c r="U16" s="80"/>
+      <c r="V16" s="80"/>
+      <c r="W16" s="80"/>
+      <c r="X16" s="80"/>
+      <c r="Y16" s="80"/>
+      <c r="Z16" s="80"/>
+      <c r="AA16" s="80"/>
+      <c r="AB16" s="80"/>
+      <c r="AC16" s="80"/>
+      <c r="AD16" s="80"/>
+      <c r="AE16" s="80"/>
+      <c r="AF16" s="80"/>
+      <c r="AG16" s="81"/>
+      <c r="AH16" s="61"/>
+      <c r="AI16" s="62"/>
+      <c r="AJ16" s="62"/>
+      <c r="AK16" s="62"/>
+      <c r="AL16" s="63"/>
       <c r="AM16" s="5"/>
       <c r="AN16" s="6"/>
     </row>
@@ -11753,22 +11669,22 @@
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="D15:G16"/>
-    <mergeCell ref="H15:M16"/>
-    <mergeCell ref="N15:Q16"/>
-    <mergeCell ref="R15:AG16"/>
-    <mergeCell ref="AH15:AL16"/>
-    <mergeCell ref="D8:P8"/>
-    <mergeCell ref="D11:G12"/>
-    <mergeCell ref="H11:M12"/>
-    <mergeCell ref="N11:Q12"/>
-    <mergeCell ref="R11:AG12"/>
     <mergeCell ref="AH11:AL12"/>
     <mergeCell ref="D13:G14"/>
     <mergeCell ref="H13:M14"/>
     <mergeCell ref="N13:Q14"/>
     <mergeCell ref="R13:AG14"/>
     <mergeCell ref="AH13:AL14"/>
+    <mergeCell ref="D8:P8"/>
+    <mergeCell ref="D11:G12"/>
+    <mergeCell ref="H11:M12"/>
+    <mergeCell ref="N11:Q12"/>
+    <mergeCell ref="R11:AG12"/>
+    <mergeCell ref="D15:G16"/>
+    <mergeCell ref="H15:M16"/>
+    <mergeCell ref="N15:Q16"/>
+    <mergeCell ref="R15:AG16"/>
+    <mergeCell ref="AH15:AL16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
